--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F9F39-FF75-6D4F-A60D-454FC20B88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED2E4F-DEE5-B54A-AAF9-7DE07D71F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>block</t>
   </si>
@@ -84,12 +84,30 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>leaked</t>
+  </si>
+  <si>
+    <t>No UV</t>
+  </si>
+  <si>
+    <t>220 %</t>
+  </si>
+  <si>
+    <t>Alates</t>
+  </si>
+  <si>
+    <t>Nymphs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -144,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,51 +185,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,372 +614,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F006D38-C2FB-584F-810A-C0231E0A2881}">
-  <dimension ref="A1:H17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="L3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="M3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="J4" s="21">
+        <v>220</v>
+      </c>
+      <c r="K4" s="20">
+        <f>SUM(F2:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <f>SUM(F8:F9)</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="20">
+        <f>SUM(F10:F11)</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="20">
+        <f>SUM(F16:F17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="J5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="20">
+        <f>SUM(F4:F5)</f>
+        <v>20</v>
+      </c>
+      <c r="L5" s="20">
+        <f>SUM(F6:F7)</f>
+        <v>7</v>
+      </c>
+      <c r="M5" s="20">
+        <f>SUM(F12:F13)</f>
+        <v>9</v>
+      </c>
+      <c r="N5" s="20">
+        <f>SUM(F14:F15)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="J6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="22">
+        <f>100*K4/SUM(K4:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" ref="L6:N6" si="0">100*L4/SUM(L4:L5)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="M6" s="23">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="N6" s="23">
+        <f t="shared" si="0"/>
+        <v>54.545454545454547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="F8" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="G8" s="10">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="J8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12">
+      <c r="N10" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
         <v>6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="21">
+        <v>220</v>
+      </c>
+      <c r="K11" s="20">
+        <f>SUM(G2:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <f>SUM(G8:G9)</f>
+        <v>11</v>
+      </c>
+      <c r="M11" s="20">
+        <f>SUM(G10:G11)</f>
+        <v>7</v>
+      </c>
+      <c r="N11" s="20">
+        <f>SUM(G16:G17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>7</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="F12" s="13">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13">
+        <v>14</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="20">
+        <f>SUM(G4:G5)</f>
+        <v>49</v>
+      </c>
+      <c r="L12" s="20">
+        <f>SUM(G6:G7)</f>
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="M12" s="20">
+        <f>SUM(G12:G13)</f>
+        <v>15</v>
+      </c>
+      <c r="N12" s="20">
+        <f>SUM(G14:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="F13" s="13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="J13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="22">
+        <f>100*K11/SUM(K11:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" ref="L13" si="1">100*L11/SUM(L11:L12)</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" ref="M13" si="2">100*M11/SUM(M11:M12)</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" ref="N13" si="3">100*N11/SUM(N11:N12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>17</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>18</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="94" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED2E4F-DEE5-B54A-AAF9-7DE07D71F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A330B03-9162-3B43-98C3-7F57FEE2929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="21">
   <si>
     <t>block</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>1_2_3_4</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Nymphs</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -251,26 +251,26 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="189" workbookViewId="0">
+      <selection sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,49 +647,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -699,30 +699,30 @@
       </c>
       <c r="H2" s="6"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -731,35 +731,35 @@
         <v>0</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
@@ -768,41 +768,41 @@
         <v>32</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>220</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <f>SUM(F2:F3)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <f>SUM(F8:F9)</f>
         <v>5</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <f>SUM(F10:F11)</f>
         <v>4</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="18">
         <f>SUM(F16:F17)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
@@ -811,41 +811,41 @@
         <v>17</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="18">
         <f>SUM(F4:F5)</f>
         <v>20</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <f>SUM(F6:F7)</f>
         <v>7</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <f>SUM(F12:F13)</f>
         <v>9</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="18">
         <f>SUM(F14:F15)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10">
         <v>2</v>
@@ -854,41 +854,41 @@
         <v>1</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="J6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="J6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="20">
         <f>100*K4/SUM(K4:K5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <f t="shared" ref="L6:N6" si="0">100*L4/SUM(L4:L5)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>54.545454545454547</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10">
         <v>5</v>
@@ -898,21 +898,21 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8">
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>3</v>
@@ -921,29 +921,29 @@
         <v>9</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="J8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
@@ -953,30 +953,30 @@
       </c>
       <c r="H9" s="10"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13">
         <v>2</v>
@@ -985,35 +985,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="11">
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="13">
         <v>2</v>
@@ -1022,41 +1022,41 @@
         <v>7</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>220</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <f>SUM(G8:G9)</f>
         <v>11</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f>SUM(G10:G11)</f>
         <v>7</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="18">
         <f>SUM(G16:G17)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="11">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="13">
         <v>6</v>
@@ -1065,41 +1065,41 @@
         <v>14</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="J12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="18">
         <f>SUM(G4:G5)</f>
         <v>49</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <f>SUM(G6:G7)</f>
         <v>4</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <f>SUM(G12:G13)</f>
         <v>15</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <f>SUM(G14:G15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="11">
         <v>8</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="13">
         <v>3</v>
@@ -1108,41 +1108,41 @@
         <v>1</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="J13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="J13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="20">
         <f>100*K11/SUM(K11:K12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="21">
         <f t="shared" ref="L13" si="1">100*L11/SUM(L11:L12)</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <f t="shared" ref="M13" si="2">100*M11/SUM(M11:M12)</f>
         <v>31.818181818181817</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="21">
         <f t="shared" ref="N13" si="3">100*N11/SUM(N11:N12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="14">
         <v>17</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16">
         <v>4</v>
@@ -1151,24 +1151,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="14">
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -1178,21 +1178,21 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="14">
         <v>19</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16">
         <v>5</v>
@@ -1202,21 +1202,21 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>1</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="14">
         <v>20</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -1226,8 +1226,386 @@
       </c>
       <c r="H17" s="16"/>
     </row>
+    <row r="18" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="19">
+        <v>220</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="20" t="e">
+        <f>100*K20/SUM(K20:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="21" t="e">
+        <f t="shared" ref="L22:N22" si="4">100*L20/SUM(L20:L21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="J27" s="19">
+        <v>220</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="J28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>2</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="J29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="20" t="e">
+        <f>100*K27/SUM(K27:K28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="21" t="e">
+        <f t="shared" ref="L29:N29" si="5">100*L27/SUM(L27:L28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>2</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>2</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="J1:N1"/>
@@ -1236,6 +1614,6 @@
     <mergeCell ref="M9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488B622-9A25-EB44-AA7C-77CA681CE55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A19777-1431-C44D-83C3-AAA2D8847E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,58 +251,58 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,33 +654,33 @@
   </sheetPr>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="10" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="10" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -714,270 +714,270 @@
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="R1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="24"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="8"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="16" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
         <v>15</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>32</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="L4" s="13">
+      <c r="J4" s="8"/>
+      <c r="L4" s="11">
         <v>220</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <f>SUM(H2:H3)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f>SUM(H8:H9)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <f>SUM(H10:H11)</f>
         <v>4</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f>SUM(H16:H17)</f>
         <v>6</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <v>220</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="11">
         <f>SUM(N2:N3)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="11">
         <f>SUM(N8:N9)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="11">
         <f>SUM(N10:N11)</f>
         <v>11</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="11">
         <f>SUM(N16:N17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>17</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="L5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="J5" s="8"/>
+      <c r="L5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="11">
         <f>SUM(H4:H5)</f>
         <v>20</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <f>SUM(H6:H7)</f>
         <v>7</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <f>SUM(H12:H13)</f>
         <v>9</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <f>SUM(H14:H15)</f>
         <v>5</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="13">
+      <c r="R5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="11">
         <f>SUM(N4:N5)</f>
         <v>12</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="11">
         <f>SUM(N6:N7)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="11">
         <f>SUM(N12:N13)</f>
         <v>77.333333333333329</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11">
         <f>SUM(N14:N15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
@@ -985,15 +985,15 @@
         <f>100*M4/SUM(M4:M5)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" ref="N6:P6" si="0">100*N4/SUM(N4:N5)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <f t="shared" si="0"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
         <v>54.545454545454547</v>
       </c>
@@ -1004,334 +1004,334 @@
         <f>100*S4/SUM(S4:S5)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="16">
         <f t="shared" ref="T6:V6" si="1">100*T4/SUM(T4:T5)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="16">
         <f t="shared" si="1"/>
         <v>12.452830188679245</v>
       </c>
-      <c r="V6" s="18" t="e">
+      <c r="V6" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
         <v>5</v>
       </c>
-      <c r="I7" s="17">
-        <v>3</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
-        <v>3</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15">
         <v>9</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="L8" s="9" t="s">
+      <c r="J8" s="15"/>
+      <c r="L8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="R8" s="9" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="R8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="24"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8" t="s">
+      <c r="T9" s="24"/>
+      <c r="U9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
-        <v>2</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="16" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="16" t="s">
+      <c r="R10" s="11"/>
+      <c r="S10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17">
         <v>6</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19">
-        <v>2</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17">
         <v>7</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="L11" s="13">
+      <c r="J11" s="17"/>
+      <c r="L11" s="11">
         <v>220</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <f>SUM(I2:I3)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <f>SUM(I8:I9)</f>
         <v>11</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <f>SUM(I10:I11)</f>
         <v>7</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <f>SUM(I16:I17)</f>
         <v>11</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <v>220</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="11">
         <f>SUM(O2:O3)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="11">
         <f>SUM(O8:O9)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="11">
         <f>SUM(O10:O11)</f>
         <v>7</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="11">
         <f>SUM(O16:O17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
         <v>7</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
         <v>6</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>14</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="L12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="J12" s="17"/>
+      <c r="L12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="11">
         <f>SUM(I4:I5)</f>
         <v>49</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <f>SUM(I6:I7)</f>
         <v>4</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <f>SUM(I12:I13)</f>
         <v>15</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <f>SUM(I14:I15)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="R12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="11">
         <f>SUM(O4:O5)</f>
         <v>13</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="11">
         <f>SUM(O6:O7)</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="11">
         <f>SUM(O12:O13)</f>
         <v>46.818181818181813</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="11">
         <f>SUM(O14:O15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>1</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="17">
         <v>8</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19">
-        <v>3</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1339,15 +1339,15 @@
         <f>100*M11/SUM(M11:M12)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="16">
         <f t="shared" ref="N13" si="2">100*N11/SUM(N11:N12)</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="16">
         <f t="shared" ref="O13" si="3">100*O11/SUM(O11:O12)</f>
         <v>31.818181818181817</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="16">
         <f t="shared" ref="P13" si="4">100*P11/SUM(P11:P12)</f>
         <v>100</v>
       </c>
@@ -1358,847 +1358,959 @@
         <f>100*S11/SUM(S11:S12)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="16">
         <f t="shared" ref="T13:V13" si="5">100*T11/SUM(T11:T12)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="16">
         <f t="shared" si="5"/>
         <v>13.006756756756758</v>
       </c>
-      <c r="V13" s="18" t="e">
+      <c r="V13" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="18">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>17</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
         <v>4</v>
       </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="18">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>18</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>19</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
         <v>5</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>7</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>20</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20">
-        <v>1</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
         <v>4</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8" t="s">
+      <c r="N18" s="24"/>
+      <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="24"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8" t="s">
+      <c r="T18" s="24"/>
+      <c r="U18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="8"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10">
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="16" t="s">
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V19" s="16" t="s">
+      <c r="R19" s="11"/>
+      <c r="S19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>7</v>
       </c>
-      <c r="G20" s="10">
-        <v>2</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="L20" s="13">
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="L20" s="11">
         <v>220</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <f>SUM(F18:F19)</f>
         <v>6</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <f>SUM(F24:F25)</f>
         <v>16</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <f>SUM(F26:F27)</f>
         <v>15</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <f>SUM(F32:F33)</f>
         <v>7</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <v>220</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+      <c r="S20" s="11">
+        <f>SUM(H18:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <f>SUM(H24:H25)</f>
+        <v>4</v>
+      </c>
+      <c r="U20" s="11">
+        <f>SUM(H26:H27)</f>
+        <v>6</v>
+      </c>
+      <c r="V20" s="11">
+        <f>SUM(H32:H33)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="L21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="13">
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>19</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="L21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="11">
         <f>SUM(F20:F21)</f>
         <v>11</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <f>SUM(F22:F23)</f>
         <v>5</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <f>SUM(F28:F29)</f>
         <v>2</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <f>SUM(F30:F31)</f>
         <v>9</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="R21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="11">
+        <f>SUM(H20:H21)</f>
+        <v>15</v>
+      </c>
+      <c r="T21" s="11">
+        <f>SUM(H22:H23)</f>
+        <v>16</v>
+      </c>
+      <c r="U21" s="11">
+        <f>SUM(H28:H29)</f>
+        <v>7</v>
+      </c>
+      <c r="V21" s="11">
+        <f>SUM(H30:H31)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>5</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="17">
-        <v>3</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="F22" s="15">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>12</v>
+      </c>
+      <c r="I22" s="15">
+        <v>50</v>
+      </c>
+      <c r="J22" s="15"/>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="16">
         <f>100*M20/SUM(M20:M21)</f>
         <v>35.294117647058826</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="16">
         <f t="shared" ref="N22:P22" si="6">100*N20/SUM(N20:N21)</f>
         <v>76.19047619047619</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="16">
         <f t="shared" si="6"/>
         <v>88.235294117647058</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="16">
         <f t="shared" si="6"/>
         <v>43.75</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="1" t="e">
+      <c r="S22" s="1">
         <f>100*S20/SUM(S20:S21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="18" t="e">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
         <f t="shared" ref="T22:V22" si="7">100*T20/SUM(T20:T21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="18" t="e">
+        <v>20</v>
+      </c>
+      <c r="U22" s="16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="18" t="e">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="V22" s="16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>6</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="17">
-        <v>2</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>4</v>
+      </c>
+      <c r="I23" s="15">
+        <v>5</v>
+      </c>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>7</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>10</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="L24" s="9" t="s">
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>15</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="L24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="R24" s="9" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="R24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>8</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>6</v>
       </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4</v>
+      </c>
+      <c r="J25" s="15"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8" t="s">
+      <c r="N25" s="24"/>
+      <c r="O25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="8"/>
+      <c r="P25" s="24"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8" t="s">
+      <c r="T25" s="24"/>
+      <c r="U25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>9</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="17">
         <v>12</v>
       </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="16" t="s">
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>6</v>
+      </c>
+      <c r="I26" s="17">
+        <v>18</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" s="16" t="s">
+      <c r="R26" s="11"/>
+      <c r="S26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>10</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19">
-        <v>3</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="L27" s="13">
+      <c r="F27" s="17">
+        <v>3</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>6</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="L27" s="11">
         <v>220</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="11">
         <f>SUM(G18:G20)</f>
         <v>3</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="11">
         <f>SUM(G24:G25)</f>
         <v>1</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="11">
         <f>SUM(G26:G27)</f>
         <v>1</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <f>SUM(G32:G33)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="11">
         <v>220</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
+      <c r="S27" s="11">
+        <f>SUM(I18:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <f>SUM(I24:I25)</f>
+        <v>19</v>
+      </c>
+      <c r="U27" s="11">
+        <f>SUM(I26:I27)</f>
+        <v>24</v>
+      </c>
+      <c r="V27" s="11">
+        <f>SUM(I32:I33)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="15">
-        <v>11</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="C28" s="13">
+        <v>11</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="L28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="13">
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>5</v>
+      </c>
+      <c r="I28" s="17">
+        <v>5</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="L28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="11">
         <f>SUM(G20:G21)</f>
         <v>3</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <f>SUM(G22:G23)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <f>SUM(G28:G29)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <f>SUM(G30:G31)</f>
         <v>3</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+      <c r="R28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="11">
+        <f>SUM(I20:I21)</f>
+        <v>32</v>
+      </c>
+      <c r="T28" s="11">
+        <f>SUM(I22:I23)</f>
+        <v>55</v>
+      </c>
+      <c r="U28" s="11">
+        <f>SUM(I28:I29)</f>
+        <v>20</v>
+      </c>
+      <c r="V28" s="11">
+        <f>SUM(I30:I31)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>12</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>2</v>
+      </c>
+      <c r="I29" s="17">
+        <v>15</v>
+      </c>
+      <c r="J29" s="17"/>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="16">
         <f>100*M27/SUM(M27:M28)</f>
         <v>50</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="16">
         <f t="shared" ref="N29:P29" si="8">100*N27/SUM(N27:N28)</f>
         <v>100</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="1" t="e">
+      <c r="S29" s="1">
         <f>100*S27/SUM(S27:S28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="18" t="e">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
         <f t="shared" ref="T29:V29" si="9">100*T27/SUM(T27:T28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="18" t="e">
+        <v>25.675675675675677</v>
+      </c>
+      <c r="U29" s="16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="18" t="e">
+        <v>54.545454545454547</v>
+      </c>
+      <c r="V29" s="16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="A30" s="18">
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>13</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>5</v>
       </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>9</v>
+      </c>
+      <c r="I30" s="18">
+        <v>26</v>
+      </c>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
+      <c r="A31" s="18">
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>14</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>4</v>
       </c>
-      <c r="G31" s="20">
-        <v>3</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="18">
+        <v>3</v>
+      </c>
+      <c r="H31" s="18">
+        <v>10</v>
+      </c>
+      <c r="I31" s="18">
+        <v>24</v>
+      </c>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
+      <c r="A32" s="18">
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>15</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>6</v>
       </c>
-      <c r="G32" s="20">
-        <v>0</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18">
+        <v>2</v>
+      </c>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <v>16</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="20">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>4</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C52266-32B7-124F-A87E-3FDD315A59E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB09850-BF21-9849-95A3-249D0980E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" activeTab="1" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="block3" sheetId="2" r:id="rId2"/>
-    <sheet name="block2" sheetId="4" r:id="rId3"/>
-    <sheet name="block1" sheetId="3" r:id="rId4"/>
+    <sheet name="block 4" sheetId="5" r:id="rId2"/>
+    <sheet name="block3" sheetId="2" r:id="rId3"/>
+    <sheet name="block2" sheetId="4" r:id="rId4"/>
+    <sheet name="block1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="53">
   <si>
     <t>block</t>
   </si>
@@ -174,6 +175,30 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>alates_220_4_hrs</t>
+  </si>
+  <si>
+    <t>alates_220_24_hrs</t>
+  </si>
+  <si>
+    <t>nymphs_PPM_4_hrs</t>
+  </si>
+  <si>
+    <t>nymphs_PPM_24_hrs</t>
+  </si>
+  <si>
+    <t>nymphs_220_4_hrs</t>
+  </si>
+  <si>
+    <t>nymphs_220_24_hrs</t>
+  </si>
+  <si>
+    <t>alates_PPM_4_hrs</t>
+  </si>
+  <si>
+    <t>alates_PPM_24_hrs</t>
   </si>
 </sst>
 </file>
@@ -572,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,9 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,21 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,6 +839,54 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,26 +896,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,11 +974,11 @@
     <mruColors>
       <color rgb="FF009244"/>
       <color rgb="FFD50002"/>
+      <color rgb="FFD9BEFF"/>
+      <color rgb="FFE4ACFF"/>
       <color rgb="FFB5EAFD"/>
       <color rgb="FFC7D4FE"/>
       <color rgb="FFFFA1FF"/>
-      <color rgb="FFE4ACFF"/>
-      <color rgb="FFD9BEFF"/>
       <color rgb="FFA3FFFC"/>
     </mruColors>
   </colors>
@@ -1252,16 +1313,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="89" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
@@ -1306,11 +1367,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8">
@@ -1332,11 +1393,11 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8">
@@ -1358,11 +1419,11 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8">
@@ -1384,11 +1445,11 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -1410,11 +1471,11 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="15">
@@ -1436,11 +1497,11 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="15">
@@ -1462,11 +1523,11 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="15">
@@ -1488,11 +1549,11 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="15">
@@ -1514,11 +1575,11 @@
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="16">
@@ -1540,11 +1601,11 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="16">
@@ -1566,11 +1627,11 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="16">
@@ -1592,11 +1653,11 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="16">
@@ -1618,11 +1679,11 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="17">
@@ -1646,11 +1707,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="17">
@@ -1672,11 +1733,11 @@
       </c>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="17">
@@ -1698,11 +1759,11 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>1</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="17">
@@ -1724,7 +1785,7 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2</v>
       </c>
@@ -1737,7 +1798,7 @@
       <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="8">
@@ -1754,7 +1815,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -1767,7 +1828,7 @@
       <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="8">
@@ -1784,7 +1845,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1797,7 +1858,7 @@
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="8">
@@ -1814,7 +1875,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2</v>
       </c>
@@ -1827,7 +1888,7 @@
       <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="8">
@@ -1844,7 +1905,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>2</v>
       </c>
@@ -1857,7 +1918,7 @@
       <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="15">
@@ -1874,7 +1935,7 @@
       </c>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>2</v>
       </c>
@@ -1887,7 +1948,7 @@
       <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="15">
@@ -1904,7 +1965,7 @@
       </c>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>2</v>
       </c>
@@ -1917,7 +1978,7 @@
       <c r="D24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="15">
@@ -1934,7 +1995,7 @@
       </c>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>2</v>
       </c>
@@ -1947,7 +2008,7 @@
       <c r="D25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="15">
@@ -1964,7 +2025,7 @@
       </c>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>2</v>
       </c>
@@ -1977,7 +2038,7 @@
       <c r="D26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="16">
@@ -1994,7 +2055,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>2</v>
       </c>
@@ -2007,7 +2068,7 @@
       <c r="D27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="16">
@@ -2024,7 +2085,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>2</v>
       </c>
@@ -2037,7 +2098,7 @@
       <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="16">
@@ -2054,7 +2115,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>2</v>
       </c>
@@ -2067,7 +2128,7 @@
       <c r="D29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="16">
@@ -2084,7 +2145,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -2097,7 +2158,7 @@
       <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="17">
@@ -2114,7 +2175,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>2</v>
       </c>
@@ -2127,7 +2188,7 @@
       <c r="D31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="17">
@@ -2144,7 +2205,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>2</v>
       </c>
@@ -2157,7 +2218,7 @@
       <c r="D32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="17">
@@ -2174,7 +2235,7 @@
       </c>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>2</v>
       </c>
@@ -2187,7 +2248,7 @@
       <c r="D33" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="17">
@@ -2204,7 +2265,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -2214,10 +2275,10 @@
       <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="8">
@@ -2234,7 +2295,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -2244,10 +2305,10 @@
       <c r="C35" s="9">
         <v>2</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="8">
@@ -2264,7 +2325,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>3</v>
       </c>
@@ -2274,10 +2335,10 @@
       <c r="C36" s="9">
         <v>3</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="8">
@@ -2294,7 +2355,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>3</v>
       </c>
@@ -2304,10 +2365,10 @@
       <c r="C37" s="9">
         <v>4</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="8">
@@ -2324,7 +2385,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>3</v>
       </c>
@@ -2337,7 +2398,7 @@
       <c r="D38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="15">
@@ -2354,7 +2415,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>3</v>
       </c>
@@ -2367,7 +2428,7 @@
       <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="15">
@@ -2384,7 +2445,7 @@
       </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>3</v>
       </c>
@@ -2397,7 +2458,7 @@
       <c r="D40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="15">
@@ -2414,7 +2475,7 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>3</v>
       </c>
@@ -2427,7 +2488,7 @@
       <c r="D41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="15">
@@ -2444,7 +2505,7 @@
       </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>3</v>
       </c>
@@ -2457,7 +2518,7 @@
       <c r="D42" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="16">
@@ -2474,7 +2535,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>3</v>
       </c>
@@ -2487,7 +2548,7 @@
       <c r="D43" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="16">
@@ -2504,7 +2565,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>3</v>
       </c>
@@ -2517,7 +2578,7 @@
       <c r="D44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="16">
@@ -2534,7 +2595,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>3</v>
       </c>
@@ -2547,7 +2608,7 @@
       <c r="D45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="16">
@@ -2564,7 +2625,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>3</v>
       </c>
@@ -2577,7 +2638,7 @@
       <c r="D46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="17">
@@ -2594,7 +2655,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>3</v>
       </c>
@@ -2607,7 +2668,7 @@
       <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="17">
@@ -2624,7 +2685,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>3</v>
       </c>
@@ -2637,7 +2698,7 @@
       <c r="D48" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="17">
@@ -2654,7 +2715,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>3</v>
       </c>
@@ -2667,7 +2728,7 @@
       <c r="D49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="17">
@@ -2684,248 +2745,728 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="26">
-        <v>3</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="26">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <v>3</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="25">
         <v>17</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="26">
-        <v>2</v>
-      </c>
-      <c r="G50" s="26">
-        <v>0</v>
-      </c>
-      <c r="H50" s="26">
-        <v>0</v>
-      </c>
-      <c r="I50" s="26">
-        <v>0</v>
-      </c>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="26">
-        <v>3</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="26">
+      <c r="D50" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="25">
+        <v>2</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0</v>
+      </c>
+      <c r="H50" s="25">
+        <v>0</v>
+      </c>
+      <c r="I50" s="25">
+        <v>0</v>
+      </c>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <v>3</v>
+      </c>
+      <c r="B51" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="25">
         <v>18</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="26">
-        <v>4</v>
-      </c>
-      <c r="G51" s="26">
-        <v>0</v>
-      </c>
-      <c r="H51" s="26">
-        <v>2</v>
-      </c>
-      <c r="I51" s="26">
-        <v>4</v>
-      </c>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="26">
-        <v>3</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="26">
+      <c r="D51" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="25">
+        <v>4</v>
+      </c>
+      <c r="G51" s="25">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25">
+        <v>2</v>
+      </c>
+      <c r="I51" s="25">
+        <v>4</v>
+      </c>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>3</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="25">
         <v>19</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="26">
-        <v>4</v>
-      </c>
-      <c r="G52" s="26">
-        <v>0</v>
-      </c>
-      <c r="H52" s="26">
+      <c r="D52" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="25">
+        <v>4</v>
+      </c>
+      <c r="G52" s="25">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25">
         <v>9</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="25">
         <v>21</v>
       </c>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="26">
-        <v>3</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="26">
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <v>3</v>
+      </c>
+      <c r="B53" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="25">
         <v>20</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="26">
-        <v>1</v>
-      </c>
-      <c r="G53" s="26">
-        <v>2</v>
-      </c>
-      <c r="H53" s="26">
+      <c r="D53" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="25">
+        <v>1</v>
+      </c>
+      <c r="G53" s="25">
+        <v>2</v>
+      </c>
+      <c r="H53" s="25">
         <v>5</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="25">
         <v>22</v>
       </c>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="24">
-        <v>3</v>
-      </c>
-      <c r="B54" s="29" t="s">
+      <c r="J53" s="25"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
+        <v>3</v>
+      </c>
+      <c r="B54" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <v>21</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="24">
-        <v>1</v>
-      </c>
-      <c r="G54" s="24">
-        <v>1</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0</v>
-      </c>
-      <c r="I54" s="24">
-        <v>3</v>
-      </c>
-      <c r="J54" s="24"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="24">
-        <v>3</v>
-      </c>
-      <c r="B55" s="29" t="s">
+      <c r="D54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="23">
+        <v>1</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1</v>
+      </c>
+      <c r="H54" s="23">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <v>3</v>
+      </c>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="23">
+        <v>3</v>
+      </c>
+      <c r="B55" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>22</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="24">
-        <v>2</v>
-      </c>
-      <c r="G55" s="24">
-        <v>1</v>
-      </c>
-      <c r="H55" s="24">
-        <v>4</v>
-      </c>
-      <c r="I55" s="24">
-        <v>2</v>
-      </c>
-      <c r="J55" s="24"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="24">
-        <v>3</v>
-      </c>
-      <c r="B56" s="29" t="s">
+      <c r="D55" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="23">
+        <v>2</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+      <c r="H55" s="23">
+        <v>4</v>
+      </c>
+      <c r="I55" s="23">
+        <v>2</v>
+      </c>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="23">
+        <v>3</v>
+      </c>
+      <c r="B56" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>23</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="24">
-        <v>2</v>
-      </c>
-      <c r="G56" s="24">
-        <v>0</v>
-      </c>
-      <c r="H56" s="24">
+      <c r="D56" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="23">
+        <v>2</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
         <v>5</v>
       </c>
-      <c r="I56" s="24">
-        <v>3</v>
-      </c>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="24">
-        <v>3</v>
-      </c>
-      <c r="B57" s="29" t="s">
+      <c r="I56" s="23">
+        <v>3</v>
+      </c>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="23">
+        <v>3</v>
+      </c>
+      <c r="B57" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>24</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="24">
-        <v>2</v>
-      </c>
-      <c r="G57" s="24">
-        <v>0</v>
-      </c>
-      <c r="H57" s="24">
-        <v>1</v>
-      </c>
-      <c r="I57" s="24">
-        <v>2</v>
-      </c>
-      <c r="J57" s="24"/>
+      <c r="D57" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="23">
+        <v>2</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <v>1</v>
+      </c>
+      <c r="I57" s="23">
+        <v>2</v>
+      </c>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>4</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="13">
+        <v>9</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="16">
+        <v>6</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="16">
+        <v>5</v>
+      </c>
+      <c r="I58" s="16">
+        <v>20</v>
+      </c>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="13">
+        <v>10</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="16">
+        <v>0</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="13">
+        <v>11</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="16">
+        <v>5</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16">
+        <v>2</v>
+      </c>
+      <c r="I60" s="16">
+        <v>1</v>
+      </c>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>4</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="13">
+        <v>12</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="16">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <v>4</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="17">
+        <v>4</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="14">
+        <v>13</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1</v>
+      </c>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="14">
+        <v>14</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="17">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
+      <c r="H63" s="17">
+        <v>8</v>
+      </c>
+      <c r="I63" s="17">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
+        <v>4</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="14">
+        <v>15</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
+        <v>4</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="14">
+        <v>16</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="17">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17">
+        <v>2</v>
+      </c>
+      <c r="I65" s="17">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <v>4</v>
+      </c>
+      <c r="B66" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="25">
+        <v>17</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="25">
+        <v>0</v>
+      </c>
+      <c r="G66" s="25">
+        <v>0</v>
+      </c>
+      <c r="H66" s="25">
+        <v>0</v>
+      </c>
+      <c r="I66" s="25">
+        <v>0</v>
+      </c>
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>4</v>
+      </c>
+      <c r="B67" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="25">
+        <v>18</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="25">
+        <v>2</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25">
+        <v>3</v>
+      </c>
+      <c r="I67" s="25">
+        <v>0</v>
+      </c>
+      <c r="J67" s="25"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>4</v>
+      </c>
+      <c r="B68" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="25">
+        <v>19</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="25">
+        <v>1</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0</v>
+      </c>
+      <c r="H68" s="25">
+        <v>5</v>
+      </c>
+      <c r="I68" s="25">
+        <v>0</v>
+      </c>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="25">
+        <v>4</v>
+      </c>
+      <c r="B69" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="25">
+        <v>20</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="25">
+        <v>2</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0</v>
+      </c>
+      <c r="H69" s="25">
+        <v>6</v>
+      </c>
+      <c r="I69" s="25">
+        <v>0</v>
+      </c>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>4</v>
+      </c>
+      <c r="B70" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="23">
+        <v>21</v>
+      </c>
+      <c r="D70" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="23">
+        <v>0</v>
+      </c>
+      <c r="G70" s="23">
+        <v>0</v>
+      </c>
+      <c r="H70" s="23">
+        <v>3</v>
+      </c>
+      <c r="I70" s="23">
+        <v>1</v>
+      </c>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="23">
+        <v>4</v>
+      </c>
+      <c r="B71" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="23">
+        <v>22</v>
+      </c>
+      <c r="D71" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="23">
+        <v>0</v>
+      </c>
+      <c r="G71" s="23">
+        <v>0</v>
+      </c>
+      <c r="H71" s="23">
+        <v>4</v>
+      </c>
+      <c r="I71" s="23">
+        <v>2</v>
+      </c>
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="23">
+        <v>4</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="23">
+        <v>23</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="23">
+        <v>1</v>
+      </c>
+      <c r="G72" s="23">
+        <v>0</v>
+      </c>
+      <c r="H72" s="23">
+        <v>3</v>
+      </c>
+      <c r="I72" s="23">
+        <v>1</v>
+      </c>
+      <c r="J72" s="23"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="23">
+        <v>4</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="23">
+        <v>24</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
+        <v>0</v>
+      </c>
+      <c r="H73" s="23">
+        <v>2</v>
+      </c>
+      <c r="I73" s="23">
+        <v>0</v>
+      </c>
+      <c r="J73" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D57 D74:D1048576">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PPM">
       <formula>NOT(ISERROR(SEARCH("PPM",D1)))</formula>
     </cfRule>
@@ -2934,16 +3475,793 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="78" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08896F46-BF9D-CC45-9F04-D03C1BEB3E6B}">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>9</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>20</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="M2" s="13">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="105">
+        <f>SUM(F4:F5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q2" s="105">
+        <f>SUM(F2:F3)</f>
+        <v>7</v>
+      </c>
+      <c r="R2" s="105">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105">
+        <f>SUM(H4:H5)</f>
+        <v>6</v>
+      </c>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105">
+        <f>SUM(I4:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="105"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="M3" s="14">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="106">
+        <f>SUM(F6:F7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="106">
+        <f>SUM(F8:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="106">
+        <f>SUM(G6:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106">
+        <f>SUM(H6:H7)</f>
+        <v>9</v>
+      </c>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106">
+        <f>SUM(I6:I7)</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="106"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>11</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="M4" s="25">
+        <v>4</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="107">
+        <f>SUM(F12:F13)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="107">
+        <f>SUM(F10:F11)</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="107">
+        <f>SUM(G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107">
+        <f>SUM(H12:H13)</f>
+        <v>11</v>
+      </c>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107">
+        <v>0</v>
+      </c>
+      <c r="W4" s="107"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="M5" s="28">
+        <v>4</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="108">
+        <f>SUM(F14:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="108">
+        <f>SUM(F16:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="108">
+        <v>0</v>
+      </c>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108">
+        <f>SUM(H14:H15)</f>
+        <v>7</v>
+      </c>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108">
+        <f>SUM(I14:I15)</f>
+        <v>3</v>
+      </c>
+      <c r="W5" s="108"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14">
+        <v>13</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14">
+        <v>14</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>8</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>4</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25">
+        <v>17</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="25">
+        <v>18</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>4</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="25">
+        <v>19</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>5</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>4</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="25">
+        <v>20</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>6</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>4</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23">
+        <v>21</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>4</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="23">
+        <v>22</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4</v>
+      </c>
+      <c r="I15" s="23">
+        <v>2</v>
+      </c>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="23">
+        <v>23</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>4</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="23">
+        <v>24</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="PPM">
+      <formula>NOT(ISERROR(SEARCH("PPM",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="220">
+      <formula>NOT(ISERROR(SEARCH("220",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B394376-EC17-584E-8F0F-3E04B0DE0A44}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3013,10 +4331,10 @@
       <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="8">
@@ -3033,25 +4351,25 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="99"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -3063,10 +4381,10 @@
       <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8">
@@ -3083,29 +4401,29 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="90" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="90" t="s">
+      <c r="T3" s="74"/>
+      <c r="U3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91" t="s">
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="93"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="96"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -3117,10 +4435,10 @@
       <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8">
@@ -3137,7 +4455,7 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="81"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="9" t="s">
         <v>1</v>
       </c>
@@ -3150,14 +4468,14 @@
       <c r="P4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="82" t="s">
+      <c r="Q4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="76" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="10"/>
-      <c r="T4" s="81"/>
+      <c r="T4" s="75"/>
       <c r="U4" s="9" t="s">
         <v>1</v>
       </c>
@@ -3170,10 +4488,10 @@
       <c r="X4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="82" t="s">
+      <c r="Y4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3187,10 +4505,10 @@
       <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8">
@@ -3207,7 +4525,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="95">
+      <c r="L5" s="82">
         <v>220</v>
       </c>
       <c r="M5" s="11">
@@ -3230,12 +4548,12 @@
         <f>SUM(F18:F19)</f>
         <v>6</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="77">
         <f>SUM(F24:F25)</f>
         <v>4</v>
       </c>
       <c r="S5" s="10"/>
-      <c r="T5" s="95">
+      <c r="T5" s="82">
         <v>220</v>
       </c>
       <c r="U5" s="11">
@@ -3258,7 +4576,7 @@
         <f>SUM(H18:H19)</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="83">
+      <c r="Z5" s="77">
         <f>SUM(H24:H25)</f>
         <v>6</v>
       </c>
@@ -3276,7 +4594,7 @@
       <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="15">
@@ -3293,7 +4611,7 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="81" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="11">
@@ -3316,12 +4634,12 @@
         <f>SUM(F20:F21)</f>
         <v>5</v>
       </c>
-      <c r="R6" s="83">
+      <c r="R6" s="77">
         <f>SUM(F22:F23)</f>
         <v>3</v>
       </c>
       <c r="S6" s="10"/>
-      <c r="T6" s="94" t="s">
+      <c r="T6" s="81" t="s">
         <v>11</v>
       </c>
       <c r="U6" s="11">
@@ -3344,7 +4662,7 @@
         <f>SUM(H20:H21)</f>
         <v>14</v>
       </c>
-      <c r="Z6" s="83">
+      <c r="Z6" s="77">
         <f>SUM(H22:H23)</f>
         <v>4</v>
       </c>
@@ -3362,7 +4680,7 @@
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="15">
@@ -3379,58 +4697,58 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="79">
         <f>100*M5/SUM(M5:M6)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="79">
         <f t="shared" ref="N7:R7" si="0">100*N5/SUM(N5:N6)</f>
         <v>37.5</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="79">
         <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="79">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="79">
         <f t="shared" si="0"/>
         <v>54.545454545454547</v>
       </c>
-      <c r="R7" s="86">
+      <c r="R7" s="80">
         <f t="shared" si="0"/>
         <v>57.142857142857146</v>
       </c>
       <c r="S7" s="10"/>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="85">
+      <c r="U7" s="79">
         <f>100*U5/SUM(U5:U6)</f>
         <v>40</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="79">
         <f t="shared" ref="V7" si="1">100*V5/SUM(V5:V6)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="W7" s="85">
+      <c r="W7" s="79">
         <f t="shared" ref="W7" si="2">100*W5/SUM(W5:W6)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="85">
+      <c r="X7" s="79">
         <f t="shared" ref="X7" si="3">100*X5/SUM(X5:X6)</f>
         <v>45.454545454545453</v>
       </c>
-      <c r="Y7" s="85">
+      <c r="Y7" s="79">
         <f t="shared" ref="Y7" si="4">100*Y5/SUM(Y5:Y6)</f>
         <v>12.5</v>
       </c>
-      <c r="Z7" s="86">
+      <c r="Z7" s="80">
         <f t="shared" ref="Z7" si="5">100*Z5/SUM(Z5:Z6)</f>
         <v>60</v>
       </c>
@@ -3448,7 +4766,7 @@
       <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="15">
@@ -3487,7 +4805,7 @@
       <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="15">
@@ -3504,25 +4822,25 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="87" t="s">
+      <c r="T9" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="89"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="99"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -3537,7 +4855,7 @@
       <c r="D10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="16">
@@ -3554,29 +4872,29 @@
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="90" t="s">
+      <c r="L10" s="74"/>
+      <c r="M10" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91" t="s">
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="90" t="s">
+      <c r="Q10" s="95"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91" t="s">
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="96"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -3591,7 +4909,7 @@
       <c r="D11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="16">
@@ -3608,7 +4926,7 @@
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="81"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="9" t="s">
         <v>1</v>
       </c>
@@ -3621,14 +4939,14 @@
       <c r="P11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="82" t="s">
+      <c r="Q11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="96"/>
-      <c r="T11" s="81"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="75"/>
       <c r="U11" s="9" t="s">
         <v>1</v>
       </c>
@@ -3641,10 +4959,10 @@
       <c r="X11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="82" t="s">
+      <c r="Y11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3661,7 +4979,7 @@
       <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="16">
@@ -3678,7 +4996,7 @@
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="95">
+      <c r="L12" s="82">
         <v>220</v>
       </c>
       <c r="M12" s="11">
@@ -3701,12 +5019,12 @@
         <f>SUM(G18:G19)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="83">
+      <c r="R12" s="77">
         <f>SUM(G24:G25)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="96"/>
-      <c r="T12" s="95">
+      <c r="S12" s="83"/>
+      <c r="T12" s="82">
         <v>220</v>
       </c>
       <c r="U12" s="11">
@@ -3729,7 +5047,7 @@
         <f>SUM(I20:I21)</f>
         <v>43</v>
       </c>
-      <c r="Z12" s="83">
+      <c r="Z12" s="77">
         <f>SUM(I24:I25)</f>
         <v>5</v>
       </c>
@@ -3747,7 +5065,7 @@
       <c r="D13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="16">
@@ -3764,7 +5082,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="94" t="s">
+      <c r="L13" s="81" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="11">
@@ -3787,12 +5105,12 @@
         <f>SUM(G20:G21)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="83">
+      <c r="R13" s="77">
         <f>SUM(G22:G23)</f>
         <v>2</v>
       </c>
-      <c r="S13" s="96"/>
-      <c r="T13" s="94" t="s">
+      <c r="S13" s="83"/>
+      <c r="T13" s="81" t="s">
         <v>11</v>
       </c>
       <c r="U13" s="11">
@@ -3815,7 +5133,7 @@
         <f>SUM(I18:I19)</f>
         <v>4</v>
       </c>
-      <c r="Z13" s="83">
+      <c r="Z13" s="77">
         <f>SUM(I22:I23)</f>
         <v>5</v>
       </c>
@@ -3833,7 +5151,7 @@
       <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="17">
@@ -3850,56 +5168,56 @@
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="79">
         <f>100*M12/SUM(M12:M13)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="85" t="s">
+      <c r="N14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="85" t="s">
+      <c r="O14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="79">
         <f t="shared" ref="P14" si="6">100*P12/SUM(P12:P13)</f>
         <v>100</v>
       </c>
-      <c r="Q14" s="85">
+      <c r="Q14" s="79">
         <f t="shared" ref="Q14" si="7">100*Q12/SUM(Q12:Q13)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="86">
+      <c r="R14" s="80">
         <f t="shared" ref="R14" si="8">100*R12/SUM(R12:R13)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="96"/>
-      <c r="T14" s="84" t="s">
+      <c r="S14" s="83"/>
+      <c r="T14" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="U14" s="85">
+      <c r="U14" s="79">
         <f>100*U12/SUM(U12:U13)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="85">
+      <c r="V14" s="79">
         <f t="shared" ref="V14" si="9">100*V12/SUM(V12:V13)</f>
         <v>28</v>
       </c>
-      <c r="W14" s="85">
+      <c r="W14" s="79">
         <f t="shared" ref="W14" si="10">100*W12/SUM(W12:W13)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="85">
+      <c r="X14" s="79">
         <f t="shared" ref="X14" si="11">100*X12/SUM(X12:X13)</f>
         <v>38.888888888888886</v>
       </c>
-      <c r="Y14" s="85">
+      <c r="Y14" s="79">
         <f t="shared" ref="Y14" si="12">100*Y12/SUM(Y12:Y13)</f>
         <v>91.489361702127653</v>
       </c>
-      <c r="Z14" s="86">
+      <c r="Z14" s="80">
         <f t="shared" ref="Z14" si="13">100*Z12/SUM(Z12:Z13)</f>
         <v>50</v>
       </c>
@@ -3917,7 +5235,7 @@
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="17">
@@ -3934,14 +5252,14 @@
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
@@ -3956,7 +5274,7 @@
       <c r="D16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="17">
@@ -3973,14 +5291,14 @@
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
@@ -3995,7 +5313,7 @@
       <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="17">
@@ -4012,161 +5330,161 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
-        <v>3</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="25">
+        <v>3</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="26">
-        <v>2</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26"/>
+      <c r="D18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
-        <v>3</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="A19" s="25">
+        <v>3</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="25">
         <v>18</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="26">
-        <v>4</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
-        <v>2</v>
-      </c>
-      <c r="I19" s="26">
-        <v>4</v>
-      </c>
-      <c r="J19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>2</v>
+      </c>
+      <c r="I19" s="25">
+        <v>4</v>
+      </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
-        <v>3</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="A20" s="25">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="25">
         <v>19</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="26">
-        <v>4</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="D20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="25">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>9</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>21</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
-        <v>3</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="A21" s="25">
+        <v>3</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="25">
         <v>20</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="26">
-        <v>1</v>
-      </c>
-      <c r="G21" s="26">
-        <v>2</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="D21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
         <v>5</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>22</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -4178,34 +5496,34 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
-        <v>3</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="23">
+        <v>3</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>21</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
-        <v>3</v>
-      </c>
-      <c r="J22" s="24"/>
+      <c r="D22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3</v>
+      </c>
+      <c r="J22" s="23"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -4217,34 +5535,34 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <v>3</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>22</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="24">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="24">
-        <v>4</v>
-      </c>
-      <c r="I23" s="24">
-        <v>2</v>
-      </c>
-      <c r="J23" s="24"/>
+      <c r="D23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="23"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -4256,34 +5574,34 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="23">
+        <v>3</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>23</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="D24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="23">
+        <v>2</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
         <v>5</v>
       </c>
-      <c r="I24" s="24">
-        <v>3</v>
-      </c>
-      <c r="J24" s="24"/>
+      <c r="I24" s="23">
+        <v>3</v>
+      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -4295,34 +5613,34 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>3</v>
-      </c>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="23">
+        <v>3</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>24</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="24">
-        <v>2</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0</v>
-      </c>
-      <c r="H25" s="24">
-        <v>1</v>
-      </c>
-      <c r="I25" s="24">
-        <v>2</v>
-      </c>
-      <c r="J25" s="24"/>
+      <c r="D25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <v>2</v>
+      </c>
+      <c r="J25" s="23"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -4348,15 +5666,7 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="L9:R9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D25">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="PPM">
-      <formula>NOT(ISERROR(SEARCH("PPM",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="220">
-      <formula>NOT(ISERROR(SEARCH("220",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="D1:D25">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PPM">
       <formula>NOT(ISERROR(SEARCH("PPM",D1)))</formula>
     </cfRule>
@@ -4365,10 +5675,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96598F4E-BF65-F548-9FE4-7547D00FAEB1}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -4432,832 +5743,832 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
-        <v>2</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="A2" s="61">
+        <v>2</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="71">
-        <v>4</v>
-      </c>
-      <c r="G2" s="71">
-        <v>0</v>
-      </c>
-      <c r="H2" s="71">
-        <v>0</v>
-      </c>
-      <c r="I2" s="71">
-        <v>0</v>
-      </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="63" t="s">
+      <c r="D2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="65">
+        <v>4</v>
+      </c>
+      <c r="G2" s="65">
+        <v>0</v>
+      </c>
+      <c r="H2" s="65">
+        <v>0</v>
+      </c>
+      <c r="I2" s="65">
+        <v>0</v>
+      </c>
+      <c r="J2" s="65"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="63" t="s">
+      <c r="N2" s="101"/>
+      <c r="O2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="63" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="63" t="s">
+      <c r="S2" s="101"/>
+      <c r="T2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="66"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2</v>
-      </c>
-      <c r="G3" s="37">
-        <v>1</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="44" t="s">
+      <c r="D3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="36">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="44" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>2</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="D4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="36">
         <v>7</v>
       </c>
-      <c r="G4" s="37">
-        <v>2</v>
-      </c>
-      <c r="H4" s="37">
+      <c r="G4" s="36">
+        <v>2</v>
+      </c>
+      <c r="H4" s="36">
         <v>10</v>
       </c>
-      <c r="I4" s="37">
-        <v>13</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="41">
+      <c r="I4" s="36">
+        <v>13</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="40">
         <v>220</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="45">
         <v>6</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="45">
         <v>16</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <v>15</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4" s="45">
         <v>7</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="40">
         <v>220</v>
       </c>
-      <c r="R4" s="46">
-        <v>0</v>
-      </c>
-      <c r="S4" s="46">
-        <v>4</v>
-      </c>
-      <c r="T4" s="46">
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
+      <c r="S4" s="45">
+        <v>4</v>
+      </c>
+      <c r="T4" s="45">
         <v>6</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>2</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="37">
-        <v>4</v>
-      </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37">
+      <c r="D5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="36">
+        <v>4</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36">
         <v>5</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>19</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="46">
-        <v>11</v>
-      </c>
-      <c r="N5" s="46">
+      <c r="J5" s="36"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="45">
+        <v>11</v>
+      </c>
+      <c r="N5" s="45">
         <v>5</v>
       </c>
-      <c r="O5" s="46">
-        <v>2</v>
-      </c>
-      <c r="P5" s="46">
+      <c r="O5" s="45">
+        <v>2</v>
+      </c>
+      <c r="P5" s="45">
         <v>9</v>
       </c>
-      <c r="Q5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="46">
+      <c r="Q5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="45">
         <v>15</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="45">
         <v>16</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="45">
         <v>7</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="45">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>2</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48">
-        <v>3</v>
-      </c>
-      <c r="G6" s="48">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <v>12</v>
-      </c>
-      <c r="I6" s="48">
+      <c r="D6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="47">
+        <v>3</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>12</v>
+      </c>
+      <c r="I6" s="47">
         <v>50</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="51">
         <v>35.299999999999997</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="51">
         <v>76.2</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="51">
         <v>88.2</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="51">
         <v>43.8</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="51">
-        <v>0</v>
-      </c>
-      <c r="S6" s="52">
+      <c r="R6" s="50">
+        <v>0</v>
+      </c>
+      <c r="S6" s="51">
         <v>20</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="51">
         <v>46.2</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="51">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
-        <v>2</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="46">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="48">
-        <v>2</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48">
-        <v>4</v>
-      </c>
-      <c r="I7" s="48">
+      <c r="D7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="47">
+        <v>2</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <v>4</v>
+      </c>
+      <c r="I7" s="47">
         <v>5</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
-        <v>2</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="46">
+        <v>2</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="48">
+      <c r="D8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="47">
         <v>10</v>
       </c>
-      <c r="G8" s="48">
-        <v>1</v>
-      </c>
-      <c r="H8" s="48">
-        <v>2</v>
-      </c>
-      <c r="I8" s="48">
+      <c r="G8" s="47">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47">
         <v>15</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
-        <v>2</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="46">
+        <v>2</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="48">
+      <c r="D9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="47">
         <v>6</v>
       </c>
-      <c r="G9" s="48">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48">
-        <v>2</v>
-      </c>
-      <c r="I9" s="48">
-        <v>4</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="63" t="s">
+      <c r="G9" s="47">
+        <v>0</v>
+      </c>
+      <c r="H9" s="47">
+        <v>2</v>
+      </c>
+      <c r="I9" s="47">
+        <v>4</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="63" t="s">
+      <c r="N9" s="101"/>
+      <c r="O9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="63" t="s">
+      <c r="P9" s="101"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="66"/>
-      <c r="T9" s="63" t="s">
+      <c r="S9" s="101"/>
+      <c r="T9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="66"/>
+      <c r="U9" s="101"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
-        <v>2</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="55">
-        <v>12</v>
-      </c>
-      <c r="G10" s="55">
-        <v>1</v>
-      </c>
-      <c r="H10" s="55">
+      <c r="D10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="54">
+        <v>12</v>
+      </c>
+      <c r="G10" s="54">
+        <v>1</v>
+      </c>
+      <c r="H10" s="54">
         <v>6</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="54">
         <v>18</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="44" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="44" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="54">
-        <v>2</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="A11" s="53">
+        <v>2</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="55">
-        <v>3</v>
-      </c>
-      <c r="G11" s="55">
-        <v>0</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="D11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="54">
+        <v>3</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
         <v>6</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41">
+      <c r="J11" s="54"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="40">
         <v>220</v>
       </c>
-      <c r="M11" s="46">
-        <v>3</v>
-      </c>
-      <c r="N11" s="46">
-        <v>1</v>
-      </c>
-      <c r="O11" s="46">
-        <v>1</v>
-      </c>
-      <c r="P11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="41">
+      <c r="M11" s="45">
+        <v>3</v>
+      </c>
+      <c r="N11" s="45">
+        <v>1</v>
+      </c>
+      <c r="O11" s="45">
+        <v>1</v>
+      </c>
+      <c r="P11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="40">
         <v>220</v>
       </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
-      <c r="S11" s="46">
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
         <v>19</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="45">
         <v>24</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="45">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="54">
-        <v>2</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="A12" s="53">
+        <v>2</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="55">
-        <v>1</v>
-      </c>
-      <c r="G12" s="55">
-        <v>0</v>
-      </c>
-      <c r="H12" s="55">
+      <c r="D12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
         <v>5</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="54">
         <v>5</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="46">
-        <v>3</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0</v>
-      </c>
-      <c r="O12" s="46">
-        <v>0</v>
-      </c>
-      <c r="P12" s="46">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="46">
+      <c r="J12" s="54"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="45">
+        <v>3</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0</v>
+      </c>
+      <c r="O12" s="45">
+        <v>0</v>
+      </c>
+      <c r="P12" s="45">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="45">
         <v>32</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="45">
         <v>55</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="45">
         <v>20</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="45">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
-        <v>2</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="43" t="s">
+      <c r="A13" s="53">
+        <v>2</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="55">
-        <v>1</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55">
-        <v>2</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="D13" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="54">
+        <v>1</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54">
+        <v>2</v>
+      </c>
+      <c r="I13" s="54">
         <v>15</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="50" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="51">
         <v>50</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="51">
         <v>100</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="51">
         <v>100</v>
       </c>
-      <c r="P13" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="50" t="s">
+      <c r="P13" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="51">
-        <v>0</v>
-      </c>
-      <c r="S13" s="52">
+      <c r="R13" s="50">
+        <v>0</v>
+      </c>
+      <c r="S13" s="51">
         <v>25.7</v>
       </c>
-      <c r="T13" s="52">
+      <c r="T13" s="51">
         <v>54.5</v>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="51">
         <v>3.8</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="58">
-        <v>2</v>
-      </c>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="57">
+        <v>2</v>
+      </c>
+      <c r="B14" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="59">
+      <c r="D14" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="58">
         <v>5</v>
       </c>
-      <c r="G14" s="59">
-        <v>0</v>
-      </c>
-      <c r="H14" s="59">
+      <c r="G14" s="58">
+        <v>0</v>
+      </c>
+      <c r="H14" s="58">
         <v>9</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="58">
         <v>26</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
-        <v>2</v>
-      </c>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="57">
+        <v>2</v>
+      </c>
+      <c r="B15" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="59">
-        <v>4</v>
-      </c>
-      <c r="G15" s="59">
-        <v>3</v>
-      </c>
-      <c r="H15" s="59">
+      <c r="D15" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="58">
+        <v>4</v>
+      </c>
+      <c r="G15" s="58">
+        <v>3</v>
+      </c>
+      <c r="H15" s="58">
         <v>10</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="58">
         <v>24</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
-        <v>2</v>
-      </c>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="59">
+      <c r="D16" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="58">
         <v>6</v>
       </c>
-      <c r="G16" s="59">
-        <v>0</v>
-      </c>
-      <c r="H16" s="59">
-        <v>2</v>
-      </c>
-      <c r="I16" s="59">
-        <v>2</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="G16" s="58">
+        <v>0</v>
+      </c>
+      <c r="H16" s="58">
+        <v>2</v>
+      </c>
+      <c r="I16" s="58">
+        <v>2</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
-        <v>2</v>
-      </c>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="57">
+        <v>2</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="59">
-        <v>1</v>
-      </c>
-      <c r="G17" s="59">
-        <v>0</v>
-      </c>
-      <c r="H17" s="59">
-        <v>4</v>
-      </c>
-      <c r="I17" s="59">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="D17" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="58">
+        <v>1</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0</v>
+      </c>
+      <c r="H17" s="58">
+        <v>4</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5281,10 +6592,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08CC4E-2EF8-0545-8F24-2E824E910F87}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -5316,817 +6628,817 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62" t="s">
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
-        <v>0</v>
-      </c>
-      <c r="I2" s="37">
-        <v>0</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="63" t="s">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65" t="s">
+      <c r="N2" s="103"/>
+      <c r="O2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="63" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65" t="s">
+      <c r="S2" s="103"/>
+      <c r="T2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="64"/>
+      <c r="U2" s="103"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="44" t="s">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37">
-        <v>3</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36">
         <v>15</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>32</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="41">
+      <c r="J4" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="40">
         <v>220</v>
       </c>
-      <c r="M4" s="46">
-        <v>0</v>
-      </c>
-      <c r="N4" s="46">
+      <c r="M4" s="45">
+        <v>0</v>
+      </c>
+      <c r="N4" s="45">
         <v>5</v>
       </c>
-      <c r="O4" s="46">
-        <v>4</v>
-      </c>
-      <c r="P4" s="46">
+      <c r="O4" s="45">
+        <v>4</v>
+      </c>
+      <c r="P4" s="45">
         <v>6</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="40">
         <v>220</v>
       </c>
-      <c r="R4" s="46">
-        <v>0</v>
-      </c>
-      <c r="S4" s="46">
-        <v>0</v>
-      </c>
-      <c r="T4" s="46">
-        <v>11</v>
-      </c>
-      <c r="U4" s="46">
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
+      <c r="S4" s="45">
+        <v>0</v>
+      </c>
+      <c r="T4" s="45">
+        <v>11</v>
+      </c>
+      <c r="U4" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="37">
-        <v>4</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37">
+      <c r="A5" s="34">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36">
         <v>5</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>17</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="46">
+      <c r="J5" s="36"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="45">
         <v>20</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="45">
         <v>7</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>9</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="45">
         <v>5</v>
       </c>
-      <c r="Q5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="46">
-        <v>12</v>
-      </c>
-      <c r="S5" s="46">
+      <c r="Q5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="45">
+        <v>12</v>
+      </c>
+      <c r="S5" s="45">
         <v>41.666666669999998</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="45">
         <v>77.333333330000002</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>1</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="47">
         <v>9</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48">
-        <v>2</v>
-      </c>
-      <c r="I6" s="48">
-        <v>1</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50" t="s">
+      <c r="D6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47">
+        <v>2</v>
+      </c>
+      <c r="I6" s="47">
+        <v>1</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="51">
-        <v>0</v>
-      </c>
-      <c r="N6" s="52">
+      <c r="M6" s="50">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51">
         <v>41.7</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="51">
         <v>30.8</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="51">
         <v>54.5</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="51">
-        <v>0</v>
-      </c>
-      <c r="S6" s="52">
-        <v>0</v>
-      </c>
-      <c r="T6" s="52">
+      <c r="R6" s="50">
+        <v>0</v>
+      </c>
+      <c r="S6" s="51">
+        <v>0</v>
+      </c>
+      <c r="T6" s="51">
         <v>12.5</v>
       </c>
-      <c r="U6" s="52" t="e">
+      <c r="U6" s="51" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
-        <v>1</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="A7" s="46">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="47">
         <v>10</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48">
+      <c r="D7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <v>5</v>
       </c>
-      <c r="I7" s="48">
-        <v>3</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="I7" s="47">
+        <v>3</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
-        <v>1</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="48">
-        <v>11</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48">
-        <v>3</v>
-      </c>
-      <c r="I8" s="48">
+      <c r="A8" s="46">
+        <v>1</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47">
+        <v>11</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47">
+        <v>3</v>
+      </c>
+      <c r="I8" s="47">
         <v>9</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
-        <v>1</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="48">
-        <v>12</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48">
-        <v>2</v>
-      </c>
-      <c r="I9" s="48">
-        <v>2</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="63" t="s">
+      <c r="A9" s="46">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="47">
+        <v>12</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47">
+        <v>2</v>
+      </c>
+      <c r="I9" s="47">
+        <v>2</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65" t="s">
+      <c r="N9" s="103"/>
+      <c r="O9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="63" t="s">
+      <c r="P9" s="101"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="64"/>
-      <c r="T9" s="65" t="s">
+      <c r="S9" s="103"/>
+      <c r="T9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="64"/>
+      <c r="U9" s="103"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
-        <v>1</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="55">
+      <c r="A10" s="53">
+        <v>1</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="54">
         <v>5</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55">
-        <v>2</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="44" t="s">
+      <c r="D10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54">
+        <v>2</v>
+      </c>
+      <c r="I10" s="54">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="54">
-        <v>1</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="55">
+      <c r="A11" s="53">
+        <v>1</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="54">
         <v>6</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55">
-        <v>2</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="D11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54">
+        <v>2</v>
+      </c>
+      <c r="I11" s="54">
         <v>7</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41">
+      <c r="J11" s="54"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="40">
         <v>220</v>
       </c>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46">
-        <v>11</v>
-      </c>
-      <c r="O11" s="46">
+      <c r="M11" s="45">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
+        <v>11</v>
+      </c>
+      <c r="O11" s="45">
         <v>7</v>
       </c>
-      <c r="P11" s="46">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="41">
+      <c r="P11" s="45">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="40">
         <v>220</v>
       </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
-      <c r="S11" s="46">
-        <v>0</v>
-      </c>
-      <c r="T11" s="46">
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="45">
         <v>7</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="54">
-        <v>1</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="55">
+      <c r="A12" s="53">
+        <v>1</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="54">
         <v>7</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55">
+      <c r="D12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54">
         <v>6</v>
       </c>
-      <c r="I12" s="55">
-        <v>14</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="46">
+      <c r="I12" s="54">
+        <v>14</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="45">
         <v>49</v>
       </c>
-      <c r="N12" s="46">
-        <v>4</v>
-      </c>
-      <c r="O12" s="46">
+      <c r="N12" s="45">
+        <v>4</v>
+      </c>
+      <c r="O12" s="45">
         <v>15</v>
       </c>
-      <c r="P12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="46">
-        <v>13</v>
-      </c>
-      <c r="S12" s="46">
+      <c r="P12" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="45">
+        <v>13</v>
+      </c>
+      <c r="S12" s="45">
         <v>30.76923077</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="45">
         <v>46.81818182</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
-        <v>1</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="55">
+      <c r="A13" s="53">
+        <v>1</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="54">
         <v>8</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55">
-        <v>3</v>
-      </c>
-      <c r="I13" s="55">
-        <v>1</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="50" t="s">
+      <c r="D13" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54">
+        <v>3</v>
+      </c>
+      <c r="I13" s="54">
+        <v>1</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="51">
-        <v>0</v>
-      </c>
-      <c r="N13" s="52">
+      <c r="M13" s="50">
+        <v>0</v>
+      </c>
+      <c r="N13" s="51">
         <v>73.3</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="51">
         <v>31.8</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="51">
         <v>100</v>
       </c>
-      <c r="Q13" s="50" t="s">
+      <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="51">
-        <v>0</v>
-      </c>
-      <c r="S13" s="52">
-        <v>0</v>
-      </c>
-      <c r="T13" s="52">
-        <v>13</v>
-      </c>
-      <c r="U13" s="52" t="e">
+      <c r="R13" s="50">
+        <v>0</v>
+      </c>
+      <c r="S13" s="51">
+        <v>0</v>
+      </c>
+      <c r="T13" s="51">
+        <v>13</v>
+      </c>
+      <c r="U13" s="51" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="58">
-        <v>1</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="59">
+      <c r="A14" s="57">
+        <v>1</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="58">
         <v>17</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59">
-        <v>4</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="59" t="s">
+      <c r="D14" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58">
+        <v>4</v>
+      </c>
+      <c r="I14" s="58">
+        <v>0</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
-        <v>1</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="59">
+      <c r="A15" s="57">
+        <v>1</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="58">
         <v>18</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
-        <v>0</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="D15" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58">
+        <v>1</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
-        <v>1</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="59">
+      <c r="A16" s="57">
+        <v>1</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="58">
         <v>19</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59">
+      <c r="D16" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58">
         <v>5</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="58">
         <v>7</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
-        <v>1</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="59">
+      <c r="A17" s="57">
+        <v>1</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="58">
         <v>20</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59">
-        <v>4</v>
-      </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="D17" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>4</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6144,5 +7456,6 @@
     <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB09850-BF21-9849-95A3-249D0980E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB3305-92C8-C444-94EC-A8F229768D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" activeTab="1" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="53">
   <si>
     <t>block</t>
   </si>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,16 +911,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,14 +963,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC7D4FE"/>
+      <color rgb="FFB5EAFD"/>
+      <color rgb="FFFFA1FF"/>
+      <color rgb="FFE4ACFF"/>
+      <color rgb="FFD50002"/>
+      <color rgb="FFA3FFFC"/>
       <color rgb="FF009244"/>
-      <color rgb="FFD50002"/>
       <color rgb="FFD9BEFF"/>
-      <color rgb="FFE4ACFF"/>
-      <color rgb="FFB5EAFD"/>
-      <color rgb="FFC7D4FE"/>
-      <color rgb="FFFFA1FF"/>
-      <color rgb="FFA3FFFC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1313,24 +1304,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" style="10" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="10"/>
   </cols>
@@ -1786,7 +1777,7 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1816,7 +1807,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1846,7 +1837,7 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1876,7 +1867,7 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1906,7 +1897,7 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1936,7 +1927,7 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1966,7 +1957,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1996,7 +1987,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2026,7 +2017,7 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="13">
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2056,7 +2047,7 @@
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2086,7 +2077,7 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="13">
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2116,7 +2107,7 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="13">
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2146,7 +2137,7 @@
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="A30" s="14">
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2176,7 +2167,7 @@
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31" s="14">
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2206,7 +2197,7 @@
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="A32" s="14">
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2236,7 +2227,7 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="A33" s="14">
         <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2266,7 +2257,7 @@
       <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2296,7 +2287,7 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2326,7 +2317,7 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2356,7 +2347,7 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2386,7 +2377,7 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>3</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2416,7 +2407,7 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>3</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2446,7 +2437,7 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>3</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2476,7 +2467,7 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2506,7 +2497,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+      <c r="A42" s="13">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2536,7 +2527,7 @@
       <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+      <c r="A43" s="13">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -2566,7 +2557,7 @@
       <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
+      <c r="A44" s="13">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2596,7 +2587,7 @@
       <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
+      <c r="A45" s="13">
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2626,7 +2617,7 @@
       <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
+      <c r="A46" s="14">
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2656,7 +2647,7 @@
       <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="14">
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2686,7 +2677,7 @@
       <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="14">
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2716,7 +2707,7 @@
       <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
+      <c r="A49" s="14">
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2985,8 +2976,8 @@
       </c>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3015,8 +3006,8 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
         <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3045,8 +3036,8 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3075,8 +3066,8 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
         <v>4</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3105,8 +3096,8 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
         <v>4</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -3135,8 +3126,8 @@
       </c>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
         <v>4</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -3165,8 +3156,8 @@
       </c>
       <c r="J63" s="17"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
         <v>4</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3195,8 +3186,8 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
         <v>4</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -3225,7 +3216,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>4</v>
       </c>
@@ -3255,7 +3246,7 @@
       </c>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>4</v>
       </c>
@@ -3285,7 +3276,7 @@
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
         <v>4</v>
       </c>
@@ -3315,7 +3306,7 @@
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>4</v>
       </c>
@@ -3345,7 +3336,7 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>4</v>
       </c>
@@ -3375,7 +3366,7 @@
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>4</v>
       </c>
@@ -3405,7 +3396,7 @@
       </c>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>4</v>
       </c>
@@ -3435,7 +3426,7 @@
       </c>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>4</v>
       </c>
@@ -3465,8 +3456,632 @@
       </c>
       <c r="J73" s="23"/>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>5</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="8">
+        <v>5</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>5</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8">
+        <v>2</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="8">
+        <v>8</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>5</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8">
+        <v>3</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>5</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8">
+        <v>4</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>5</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="15">
+        <v>5</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="15">
+        <v>6</v>
+      </c>
+      <c r="G78" s="15">
+        <v>2</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <v>5</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="15">
+        <v>6</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <v>5</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="15">
+        <v>7</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <v>5</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="15">
+        <v>8</v>
+      </c>
+      <c r="D81" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="15">
+        <v>3</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
+        <v>5</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="13">
+        <v>9</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="16">
+        <v>1</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="13">
+        <v>5</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="13">
+        <v>10</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="16">
+        <v>3</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="13">
+        <v>5</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="13">
+        <v>11</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="16">
+        <v>5</v>
+      </c>
+      <c r="G84" s="16">
+        <v>0</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="13">
+        <v>5</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="13">
+        <v>12</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="16">
+        <v>3</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>5</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="14">
+        <v>13</v>
+      </c>
+      <c r="D86" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="17">
+        <v>2</v>
+      </c>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>5</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="14">
+        <v>14</v>
+      </c>
+      <c r="D87" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="17">
+        <v>2</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>5</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="14">
+        <v>15</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="17">
+        <v>6</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0</v>
+      </c>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>5</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="14">
+        <v>16</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="17">
+        <v>3</v>
+      </c>
+      <c r="G89" s="17">
+        <v>1</v>
+      </c>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="25">
+        <v>5</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="25">
+        <v>17</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="25">
+        <v>2</v>
+      </c>
+      <c r="G90" s="25">
+        <v>1</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="25">
+        <v>5</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="25">
+        <v>18</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="25">
+        <v>3</v>
+      </c>
+      <c r="G91" s="25">
+        <v>0</v>
+      </c>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="25">
+        <v>5</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="25">
+        <v>19</v>
+      </c>
+      <c r="D92" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="25">
+        <v>3</v>
+      </c>
+      <c r="G92" s="25">
+        <v>0</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="25">
+        <v>5</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="25">
+        <v>20</v>
+      </c>
+      <c r="D93" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="25">
+        <v>5</v>
+      </c>
+      <c r="G93" s="25">
+        <v>1</v>
+      </c>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="23">
+        <v>5</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="23">
+        <v>21</v>
+      </c>
+      <c r="D94" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="23">
+        <v>1</v>
+      </c>
+      <c r="G94" s="23">
+        <v>0</v>
+      </c>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="23">
+        <v>5</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="23">
+        <v>22</v>
+      </c>
+      <c r="D95" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="23">
+        <v>6</v>
+      </c>
+      <c r="G95" s="23">
+        <v>1</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="23">
+        <v>5</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="23">
+        <v>23</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="23">
+        <v>1</v>
+      </c>
+      <c r="G96" s="23">
+        <v>0</v>
+      </c>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="23">
+        <v>5</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="23">
+        <v>24</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="23">
+        <v>2</v>
+      </c>
+      <c r="G97" s="23">
+        <v>0</v>
+      </c>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D57 D74:D1048576">
+  <conditionalFormatting sqref="D1:D57 D98:D1048576">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PPM">
       <formula>NOT(ISERROR(SEARCH("PPM",D1)))</formula>
     </cfRule>
@@ -3475,7 +4090,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3483,7 +4098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08896F46-BF9D-CC45-9F04-D03C1BEB3E6B}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -3621,29 +4236,29 @@
       <c r="O2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="105">
+      <c r="P2" s="16">
         <f>SUM(F4:F5)</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="105">
+      <c r="Q2" s="16">
         <f>SUM(F2:F3)</f>
         <v>7</v>
       </c>
-      <c r="R2" s="105">
+      <c r="R2" s="16">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16">
         <f>SUM(H4:H5)</f>
         <v>6</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16">
         <f>SUM(I4:I5)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="105"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
@@ -3683,29 +4298,29 @@
       <c r="O3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="106">
+      <c r="P3" s="17">
         <f>SUM(F6:F7)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="106">
+      <c r="Q3" s="17">
         <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="106">
+      <c r="R3" s="17">
         <f>SUM(G6:G7)</f>
         <v>1</v>
       </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17">
         <f>SUM(H6:H7)</f>
         <v>9</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106">
+      <c r="U3" s="17"/>
+      <c r="V3" s="17">
         <f>SUM(I6:I7)</f>
         <v>1</v>
       </c>
-      <c r="W3" s="106"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -3745,28 +4360,28 @@
       <c r="O4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="107">
+      <c r="P4" s="25">
         <f>SUM(F12:F13)</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="107">
+      <c r="Q4" s="25">
         <f>SUM(F10:F11)</f>
         <v>2</v>
       </c>
-      <c r="R4" s="107">
+      <c r="R4" s="25">
         <f>SUM(G12:G13)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25">
         <f>SUM(H12:H13)</f>
         <v>11</v>
       </c>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107">
-        <v>0</v>
-      </c>
-      <c r="W4" s="107"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
@@ -3806,28 +4421,28 @@
       <c r="O5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="108">
+      <c r="P5" s="23">
         <f>SUM(F14:F15)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="23">
         <f>SUM(F16:F17)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="108">
-        <v>0</v>
-      </c>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108">
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23">
         <f>SUM(H14:H15)</f>
         <v>7</v>
       </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108">
+      <c r="U5" s="23"/>
+      <c r="V5" s="23">
         <f>SUM(I14:I15)</f>
         <v>3</v>
       </c>
-      <c r="W5" s="108"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -4253,6 +4868,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4261,7 +4877,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Z1048576"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6601,7 +7217,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB3305-92C8-C444-94EC-A8F229768D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63057D-2124-8D4C-8A24-D68C277CBAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -875,6 +875,9 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,9 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3478,8 +3478,12 @@
       <c r="G74" s="8">
         <v>0</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="H74" s="8">
+        <v>9</v>
+      </c>
+      <c r="I74" s="8">
+        <v>30</v>
+      </c>
       <c r="J74" s="8"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3504,8 +3508,12 @@
       <c r="G75" s="8">
         <v>1</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="H75" s="8">
+        <v>11</v>
+      </c>
+      <c r="I75" s="8">
+        <v>15</v>
+      </c>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3530,8 +3538,12 @@
       <c r="G76" s="8">
         <v>0</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3556,8 +3568,12 @@
       <c r="G77" s="8">
         <v>0</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="H77" s="8">
+        <v>3</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3582,8 +3598,12 @@
       <c r="G78" s="15">
         <v>2</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="H78" s="15">
+        <v>1</v>
+      </c>
+      <c r="I78" s="15">
+        <v>2</v>
+      </c>
       <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3608,8 +3628,12 @@
       <c r="G79" s="15">
         <v>0</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
       <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3622,7 +3646,7 @@
       <c r="C80" s="15">
         <v>7</v>
       </c>
-      <c r="D80" s="105" t="s">
+      <c r="D80" s="93" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="21" t="s">
@@ -3634,8 +3658,12 @@
       <c r="G80" s="15">
         <v>0</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="H80" s="15">
+        <v>2</v>
+      </c>
+      <c r="I80" s="15">
+        <v>10</v>
+      </c>
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3648,7 +3676,7 @@
       <c r="C81" s="15">
         <v>8</v>
       </c>
-      <c r="D81" s="105" t="s">
+      <c r="D81" s="93" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="21" t="s">
@@ -3660,8 +3688,12 @@
       <c r="G81" s="15">
         <v>0</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="H81" s="15">
+        <v>6</v>
+      </c>
+      <c r="I81" s="15">
+        <v>17</v>
+      </c>
       <c r="J81" s="15"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3686,8 +3718,12 @@
       <c r="G82" s="16">
         <v>1</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="H82" s="16">
+        <v>6</v>
+      </c>
+      <c r="I82" s="16">
+        <v>13</v>
+      </c>
       <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3712,8 +3748,12 @@
       <c r="G83" s="16">
         <v>1</v>
       </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="H83" s="16">
+        <v>9</v>
+      </c>
+      <c r="I83" s="16">
+        <v>23</v>
+      </c>
       <c r="J83" s="16"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3738,8 +3778,12 @@
       <c r="G84" s="16">
         <v>0</v>
       </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="16">
+        <v>2</v>
+      </c>
+      <c r="I84" s="16">
+        <v>4</v>
+      </c>
       <c r="J84" s="16"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3764,8 +3808,12 @@
       <c r="G85" s="16">
         <v>1</v>
       </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="H85" s="16">
+        <v>1</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
       <c r="J85" s="16"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3790,8 +3838,12 @@
       <c r="G86" s="17">
         <v>1</v>
       </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="H86" s="17">
+        <v>2</v>
+      </c>
+      <c r="I86" s="17">
+        <v>1</v>
+      </c>
       <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3816,8 +3868,12 @@
       <c r="G87" s="17">
         <v>0</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
+      <c r="H87" s="17">
+        <v>2</v>
+      </c>
+      <c r="I87" s="17">
+        <v>5</v>
+      </c>
       <c r="J87" s="17"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3842,8 +3898,12 @@
       <c r="G88" s="17">
         <v>0</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="H88" s="17">
+        <v>15</v>
+      </c>
+      <c r="I88" s="17">
+        <v>24</v>
+      </c>
       <c r="J88" s="17"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3868,8 +3928,12 @@
       <c r="G89" s="17">
         <v>1</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="H89" s="17">
+        <v>3</v>
+      </c>
+      <c r="I89" s="17">
+        <v>12</v>
+      </c>
       <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3894,8 +3958,12 @@
       <c r="G90" s="25">
         <v>1</v>
       </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+      <c r="H90" s="25">
+        <v>6</v>
+      </c>
+      <c r="I90" s="25">
+        <v>16</v>
+      </c>
       <c r="J90" s="25"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3920,8 +3988,12 @@
       <c r="G91" s="25">
         <v>0</v>
       </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
+      <c r="H91" s="25">
+        <v>12</v>
+      </c>
+      <c r="I91" s="25">
+        <v>37</v>
+      </c>
       <c r="J91" s="25"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3946,8 +4018,12 @@
       <c r="G92" s="25">
         <v>0</v>
       </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
+      <c r="H92" s="25">
+        <v>5</v>
+      </c>
+      <c r="I92" s="25">
+        <v>12</v>
+      </c>
       <c r="J92" s="25"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -3972,8 +4048,12 @@
       <c r="G93" s="25">
         <v>1</v>
       </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="H93" s="25">
+        <v>0</v>
+      </c>
+      <c r="I93" s="25">
+        <v>0</v>
+      </c>
       <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -3998,8 +4078,12 @@
       <c r="G94" s="23">
         <v>0</v>
       </c>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="H94" s="23">
+        <v>4</v>
+      </c>
+      <c r="I94" s="23">
+        <v>8</v>
+      </c>
       <c r="J94" s="23"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4024,8 +4108,12 @@
       <c r="G95" s="23">
         <v>1</v>
       </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
+      <c r="H95" s="23">
+        <v>6</v>
+      </c>
+      <c r="I95" s="23">
+        <v>9</v>
+      </c>
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4050,8 +4138,12 @@
       <c r="G96" s="23">
         <v>0</v>
       </c>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
+      <c r="H96" s="23">
+        <v>6</v>
+      </c>
+      <c r="I96" s="23">
+        <v>13</v>
+      </c>
       <c r="J96" s="23"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -4076,8 +4168,12 @@
       <c r="G97" s="23">
         <v>0</v>
       </c>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
+      <c r="H97" s="23">
+        <v>6</v>
+      </c>
+      <c r="I97" s="23">
+        <v>19</v>
+      </c>
       <c r="J97" s="23"/>
     </row>
   </sheetData>
@@ -4098,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08896F46-BF9D-CC45-9F04-D03C1BEB3E6B}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="H1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4967,25 +5063,25 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="100"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="97" t="s">
+      <c r="T2" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -5018,28 +5114,28 @@
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="74"/>
-      <c r="M3" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94" t="s">
+      <c r="M3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="97"/>
       <c r="S3" s="10"/>
       <c r="T3" s="74"/>
-      <c r="U3" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="94" t="s">
+      <c r="U3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="97"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -5438,25 +5534,25 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="97" t="s">
+      <c r="L9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="97" t="s">
+      <c r="T9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="100"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -5489,28 +5585,28 @@
       <c r="J10" s="16"/>
       <c r="K10" s="10"/>
       <c r="L10" s="74"/>
-      <c r="M10" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94" t="s">
+      <c r="M10" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="97"/>
       <c r="S10" s="83"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="94" t="s">
+      <c r="U10" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -6299,7 +6395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96598F4E-BF65-F548-9FE4-7547D00FAEB1}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="150" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -6389,23 +6485,23 @@
       <c r="J2" s="65"/>
       <c r="K2" s="38"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="100" t="s">
+      <c r="M2" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="102"/>
+      <c r="O2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="101"/>
+      <c r="P2" s="102"/>
       <c r="Q2" s="30"/>
-      <c r="R2" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="101"/>
-      <c r="T2" s="100" t="s">
+      <c r="R2" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="102"/>
+      <c r="T2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="101"/>
+      <c r="U2" s="102"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
@@ -6718,20 +6814,20 @@
       </c>
       <c r="J8" s="47"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
@@ -6764,23 +6860,23 @@
       <c r="J9" s="47"/>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="101"/>
-      <c r="O9" s="100" t="s">
+      <c r="M9" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="102"/>
+      <c r="O9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="39"/>
-      <c r="R9" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="101"/>
-      <c r="T9" s="100" t="s">
+      <c r="R9" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="102"/>
+      <c r="T9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="101"/>
+      <c r="U9" s="102"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
@@ -7275,20 +7371,20 @@
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102" t="s">
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
@@ -7317,23 +7413,23 @@
       <c r="J2" s="36"/>
       <c r="K2" s="38"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104" t="s">
+      <c r="M2" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="101"/>
+      <c r="P2" s="102"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="103"/>
-      <c r="T2" s="104" t="s">
+      <c r="R2" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="104"/>
+      <c r="T2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="103"/>
+      <c r="U2" s="104"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
@@ -7622,20 +7718,20 @@
       </c>
       <c r="J8" s="47"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
@@ -7664,23 +7760,23 @@
       <c r="J9" s="47"/>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="103"/>
-      <c r="O9" s="104" t="s">
+      <c r="M9" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="104"/>
+      <c r="O9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="39"/>
-      <c r="R9" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="103"/>
-      <c r="T9" s="104" t="s">
+      <c r="R9" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="104"/>
+      <c r="T9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="103"/>
+      <c r="U9" s="104"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
@@ -8058,18 +8154,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:U8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63057D-2124-8D4C-8A24-D68C277CBAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3B880-CF5C-F340-8D74-0ED86C3065B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>1</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>1</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>2</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>2</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>2</v>
       </c>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>2</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>2</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>2</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>3</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>3</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>3</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>3</v>
       </c>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>3</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>3</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>3</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>3</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>3</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>3</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
         <v>3</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="25">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>3</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="25">
         <v>3</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>3</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>3</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>3</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>3</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>4</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>4</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>4</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>4</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>4</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="J62" s="17"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>4</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J63" s="17"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>4</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>4</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>4</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="J66" s="25"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>4</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="J67" s="25"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
         <v>4</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>4</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>4</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>4</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>4</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>4</v>
       </c>
@@ -8154,18 +8154,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3B880-CF5C-F340-8D74-0ED86C3065B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B460B9-9B9C-934B-A328-D773EC239833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8154,18 +8154,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:U8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B460B9-9B9C-934B-A328-D773EC239833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE8C647-5234-6345-BADB-5CCFB7BD5A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="54">
   <si>
     <t>block</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>alates_PPM_24_hrs</t>
+  </si>
+  <si>
+    <t>plate</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -8154,18 +8157,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7601ADF-12F5-0944-A8D1-DE8A7D39397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B74C1-53A9-6C4C-ADDD-4F2DF250A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="23">
   <si>
     <t>block</t>
   </si>
@@ -715,23 +715,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="10"/>
@@ -3897,8 +3898,12 @@
       <c r="F98" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -3922,8 +3927,12 @@
       <c r="F99" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="8">
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0</v>
+      </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -3947,8 +3956,12 @@
       <c r="F100" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
+      <c r="G100" s="8">
+        <v>4</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -3972,8 +3985,12 @@
       <c r="F101" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="G101" s="8">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -3997,8 +4014,12 @@
       <c r="F102" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
+      <c r="G102" s="14">
+        <v>1</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0</v>
+      </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
@@ -4022,8 +4043,12 @@
       <c r="F103" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
+      <c r="G103" s="14">
+        <v>4</v>
+      </c>
+      <c r="H103" s="14">
+        <v>0</v>
+      </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
@@ -4047,8 +4072,12 @@
       <c r="F104" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
+      <c r="G104" s="14">
+        <v>1</v>
+      </c>
+      <c r="H104" s="14">
+        <v>0</v>
+      </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
@@ -4072,414 +4101,250 @@
       <c r="F105" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
+      <c r="G105" s="14">
+        <v>3</v>
+      </c>
+      <c r="H105" s="14">
+        <v>0</v>
+      </c>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="12">
+      <c r="A106" s="24">
         <v>6</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="24">
         <v>216</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="12">
-        <v>9</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
+      <c r="C106" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="24">
+        <v>17</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="24">
+        <v>1</v>
+      </c>
+      <c r="H106" s="24">
+        <v>0</v>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="12">
+      <c r="A107" s="24">
         <v>6</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="24">
         <v>216</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="12">
-        <v>10</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
+      <c r="C107" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="24">
+        <v>18</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="24">
+        <v>5</v>
+      </c>
+      <c r="H107" s="24">
+        <v>0</v>
+      </c>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="12">
+      <c r="A108" s="24">
         <v>6</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="24">
         <v>216</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="12">
-        <v>11</v>
-      </c>
-      <c r="E108" s="21" t="s">
+      <c r="C108" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="24">
+        <v>19</v>
+      </c>
+      <c r="E108" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
+      <c r="F108" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="24">
+        <v>6</v>
+      </c>
+      <c r="H108" s="24">
+        <v>0</v>
+      </c>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="12">
+      <c r="A109" s="24">
         <v>6</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="24">
         <v>216</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="12">
-        <v>12</v>
-      </c>
-      <c r="E109" s="21" t="s">
+      <c r="C109" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="24">
+        <v>20</v>
+      </c>
+      <c r="E109" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
+      <c r="F109" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="24">
+        <v>2</v>
+      </c>
+      <c r="H109" s="24">
+        <v>0</v>
+      </c>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="13">
+      <c r="A110" s="22">
         <v>6</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="22">
         <v>216</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="13">
-        <v>13</v>
-      </c>
-      <c r="E110" s="30" t="s">
+      <c r="C110" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="22">
+        <v>21</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F110" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
+      <c r="F110" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="22">
+        <v>4</v>
+      </c>
+      <c r="H110" s="22">
+        <v>0</v>
+      </c>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="13">
+      <c r="A111" s="22">
         <v>6</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="22">
         <v>216</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="13">
-        <v>14</v>
-      </c>
-      <c r="E111" s="30" t="s">
+      <c r="C111" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="22">
         <v>22</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
+      <c r="E111" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="22">
+        <v>1</v>
+      </c>
+      <c r="H111" s="22">
+        <v>0</v>
+      </c>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="13">
+      <c r="A112" s="22">
         <v>6</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="22">
         <v>216</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="13">
-        <v>15</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
+      <c r="C112" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="22">
+        <v>23</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="22">
+        <v>6</v>
+      </c>
+      <c r="H112" s="22">
+        <v>0</v>
+      </c>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="13">
+      <c r="A113" s="22">
         <v>6</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="22">
         <v>216</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="13">
-        <v>16</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="24">
-        <v>6</v>
-      </c>
-      <c r="B114" s="24">
-        <v>216</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="24">
-        <v>17</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="24">
-        <v>6</v>
-      </c>
-      <c r="B115" s="24">
-        <v>216</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="24">
-        <v>18</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="24">
-        <v>6</v>
-      </c>
-      <c r="B116" s="24">
-        <v>216</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="24">
+      <c r="C113" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="24">
-        <v>6</v>
-      </c>
-      <c r="B117" s="24">
-        <v>216</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="24">
-        <v>20</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="22">
-        <v>6</v>
-      </c>
-      <c r="B118" s="22">
-        <v>216</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="22">
-        <v>21</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="22">
-        <v>6</v>
-      </c>
-      <c r="B119" s="22">
-        <v>216</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="22">
-        <v>22</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="22">
-        <v>6</v>
-      </c>
-      <c r="B120" s="22">
-        <v>216</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="22">
-        <v>23</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="22">
-        <v>6</v>
-      </c>
-      <c r="B121" s="22">
-        <v>216</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="22">
+      <c r="D113" s="22">
         <v>24</v>
       </c>
-      <c r="E121" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22"/>
+      <c r="E113" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="22">
+        <v>3</v>
+      </c>
+      <c r="H113" s="22">
+        <v>0</v>
+      </c>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E57 E122:E1048576">
+  <conditionalFormatting sqref="E1:E57 E114:E1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PPM">
       <formula>NOT(ISERROR(SEARCH("PPM",E1)))</formula>
     </cfRule>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B74C1-53A9-6C4C-ADDD-4F2DF250A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3EF678-3B92-5349-A1D4-5921CE838BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="22">
   <si>
     <t>block</t>
   </si>
@@ -71,9 +71,6 @@
     <t>PPM</t>
   </si>
   <si>
-    <t>220_supernatant</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -104,7 +101,7 @@
     <t>strain</t>
   </si>
   <si>
-    <t>216_supernatant</t>
+    <t>supernatant</t>
   </si>
 </sst>
 </file>
@@ -718,7 +715,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -758,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -770,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -787,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -802,7 +799,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -816,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -831,7 +828,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -848,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -860,7 +857,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -877,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -889,7 +886,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -906,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -918,7 +915,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -935,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -947,7 +944,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -961,10 +958,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -976,7 +973,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -990,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1005,7 +1002,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -1019,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -1034,7 +1031,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -1048,10 +1045,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -1063,7 +1060,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1092,7 +1089,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -1109,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1149,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1181,7 +1178,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -1195,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1210,7 +1207,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>1</v>
       </c>
@@ -1224,10 +1221,10 @@
         <v>20</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1239,7 +1236,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -1253,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
@@ -1272,7 +1269,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1286,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="8">
         <v>2</v>
@@ -1305,7 +1302,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="8">
         <v>7</v>
@@ -1338,7 +1335,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -1355,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -1371,7 +1368,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>2</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="14">
         <v>3</v>
@@ -1404,7 +1401,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="14">
         <v>2</v>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1451,10 +1448,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="14">
         <v>10</v>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -1484,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="14">
         <v>6</v>
@@ -1503,7 +1500,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2</v>
       </c>
@@ -1517,10 +1514,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="15">
         <v>12</v>
@@ -1536,7 +1533,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2</v>
       </c>
@@ -1550,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="15">
         <v>3</v>
@@ -1569,7 +1566,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>2</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="15">
         <v>1</v>
@@ -1602,7 +1599,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="15">
         <v>1</v>
@@ -1635,7 +1632,7 @@
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>2</v>
       </c>
@@ -1643,7 +1640,7 @@
         <v>220</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="13">
         <v>13</v>
@@ -1652,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="16">
         <v>5</v>
@@ -1668,7 +1665,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>220</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="13">
         <v>14</v>
@@ -1685,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
@@ -1701,7 +1698,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -1709,16 +1706,16 @@
         <v>220</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="13">
         <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="16">
         <v>6</v>
@@ -1734,7 +1731,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -1742,16 +1739,16 @@
         <v>220</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="13">
         <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="16">
         <v>1</v>
@@ -1767,7 +1764,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -1781,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -1800,7 +1797,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3</v>
       </c>
@@ -1814,10 +1811,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="8">
         <v>3</v>
@@ -1866,7 +1863,7 @@
       </c>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="8">
         <v>2</v>
@@ -1899,7 +1896,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>3</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="14">
         <v>4</v>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>3</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="14">
         <v>1</v>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>3</v>
       </c>
@@ -1979,10 +1976,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="14">
         <v>1</v>
@@ -1998,7 +1995,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2012,10 +2009,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="14">
         <v>2</v>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -2045,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="15">
         <v>1</v>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>3</v>
       </c>
@@ -2078,10 +2075,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -2097,7 +2094,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>3</v>
       </c>
@@ -2114,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="15">
         <v>5</v>
@@ -2130,7 +2127,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>3</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="15">
         <v>1</v>
@@ -2163,7 +2160,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>3</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>220</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="13">
         <v>13</v>
@@ -2180,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="16">
         <v>0</v>
@@ -2196,7 +2193,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>3</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>220</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="13">
         <v>14</v>
@@ -2213,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="16">
         <v>2</v>
@@ -2229,7 +2226,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>3</v>
       </c>
@@ -2237,16 +2234,16 @@
         <v>220</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="13">
         <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="16">
         <v>1</v>
@@ -2262,7 +2259,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>3</v>
       </c>
@@ -2270,16 +2267,16 @@
         <v>220</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="13">
         <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="16">
         <v>3</v>
@@ -2295,7 +2292,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>3</v>
       </c>
@@ -2309,10 +2306,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="24">
         <v>2</v>
@@ -2328,7 +2325,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
@@ -2342,10 +2339,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="24">
         <v>4</v>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>3</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="24">
         <v>4</v>
@@ -2394,7 +2391,7 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>3</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="24">
         <v>1</v>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>3</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>220</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="22">
         <v>21</v>
@@ -2444,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="22">
         <v>1</v>
@@ -2460,7 +2457,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>3</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>220</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="22">
         <v>22</v>
@@ -2477,7 +2474,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="22">
         <v>2</v>
@@ -2493,7 +2490,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>3</v>
       </c>
@@ -2501,16 +2498,16 @@
         <v>220</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="22">
         <v>23</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="22">
         <v>2</v>
@@ -2526,7 +2523,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>3</v>
       </c>
@@ -2534,16 +2531,16 @@
         <v>220</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="22">
         <v>24</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="22">
         <v>2</v>
@@ -2559,7 +2556,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>4</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="15">
         <v>6</v>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>4</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="15">
         <v>1</v>
@@ -2625,7 +2622,7 @@
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>4</v>
       </c>
@@ -2639,10 +2636,10 @@
         <v>11</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="15">
         <v>5</v>
@@ -2658,7 +2655,7 @@
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>4</v>
       </c>
@@ -2672,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" s="15">
         <v>1</v>
@@ -2691,7 +2688,7 @@
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>4</v>
       </c>
@@ -2699,16 +2696,16 @@
         <v>220</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="13">
         <v>13</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -2724,7 +2721,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>4</v>
       </c>
@@ -2732,16 +2729,16 @@
         <v>220</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="13">
         <v>14</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="16">
         <v>1</v>
@@ -2757,7 +2754,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>4</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>220</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="13">
         <v>15</v>
@@ -2774,7 +2771,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="16">
         <v>0</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>4</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>220</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="13">
         <v>16</v>
@@ -2807,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -2823,7 +2820,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>4</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="24">
         <v>0</v>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>4</v>
       </c>
@@ -2873,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="24">
         <v>2</v>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>4</v>
       </c>
@@ -2903,10 +2900,10 @@
         <v>19</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="24">
         <v>1</v>
@@ -2922,7 +2919,7 @@
       </c>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>4</v>
       </c>
@@ -2936,10 +2933,10 @@
         <v>20</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" s="24">
         <v>2</v>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>4</v>
       </c>
@@ -2963,16 +2960,16 @@
         <v>220</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" s="22">
         <v>21</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" s="22">
         <v>0</v>
@@ -2988,7 +2985,7 @@
       </c>
       <c r="K70" s="22"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>4</v>
       </c>
@@ -2996,16 +2993,16 @@
         <v>220</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="22">
         <v>22</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="22">
         <v>0</v>
@@ -3021,7 +3018,7 @@
       </c>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>4</v>
       </c>
@@ -3029,7 +3026,7 @@
         <v>220</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" s="22">
         <v>23</v>
@@ -3038,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="22">
         <v>1</v>
@@ -3054,7 +3051,7 @@
       </c>
       <c r="K72" s="22"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>4</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>220</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" s="22">
         <v>24</v>
@@ -3071,7 +3068,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" s="22">
         <v>0</v>
@@ -3087,7 +3084,7 @@
       </c>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="8">
         <v>5</v>
@@ -3120,7 +3117,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>5</v>
       </c>
@@ -3137,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="8">
         <v>8</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>5</v>
       </c>
@@ -3167,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="8">
         <v>1</v>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>5</v>
       </c>
@@ -3200,10 +3197,10 @@
         <v>4</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="8">
         <v>3</v>
@@ -3219,7 +3216,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>5</v>
       </c>
@@ -3233,10 +3230,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="14">
         <v>6</v>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="K78" s="14"/>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>5</v>
       </c>
@@ -3266,10 +3263,10 @@
         <v>6</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="14">
         <v>0</v>
@@ -3285,7 +3282,7 @@
       </c>
       <c r="K79" s="14"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>5</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="14">
         <v>1</v>
@@ -3318,7 +3315,7 @@
       </c>
       <c r="K80" s="14"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>5</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" s="14">
         <v>3</v>
@@ -3351,7 +3348,7 @@
       </c>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>5</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="15">
         <v>1</v>
@@ -3384,7 +3381,7 @@
       </c>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>5</v>
       </c>
@@ -3401,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" s="15">
         <v>3</v>
@@ -3417,7 +3414,7 @@
       </c>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>5</v>
       </c>
@@ -3431,10 +3428,10 @@
         <v>11</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="15">
         <v>5</v>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>5</v>
       </c>
@@ -3464,10 +3461,10 @@
         <v>12</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" s="15">
         <v>3</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>5</v>
       </c>
@@ -3491,16 +3488,16 @@
         <v>220</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="13">
         <v>13</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" s="16">
         <v>2</v>
@@ -3516,7 +3513,7 @@
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>5</v>
       </c>
@@ -3524,16 +3521,16 @@
         <v>220</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" s="13">
         <v>14</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" s="16">
         <v>2</v>
@@ -3549,7 +3546,7 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>5</v>
       </c>
@@ -3557,7 +3554,7 @@
         <v>220</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="13">
         <v>15</v>
@@ -3566,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="16">
         <v>6</v>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>5</v>
       </c>
@@ -3590,7 +3587,7 @@
         <v>220</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="13">
         <v>16</v>
@@ -3599,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" s="16">
         <v>3</v>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>5</v>
       </c>
@@ -3632,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" s="24">
         <v>2</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>5</v>
       </c>
@@ -3665,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="24">
         <v>3</v>
@@ -3681,7 +3678,7 @@
       </c>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="24">
         <v>5</v>
       </c>
@@ -3695,10 +3692,10 @@
         <v>19</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" s="24">
         <v>3</v>
@@ -3714,7 +3711,7 @@
       </c>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="24">
         <v>5</v>
       </c>
@@ -3728,10 +3725,10 @@
         <v>20</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" s="24">
         <v>5</v>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>5</v>
       </c>
@@ -3755,16 +3752,16 @@
         <v>220</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" s="22">
         <v>21</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" s="22">
         <v>1</v>
@@ -3780,7 +3777,7 @@
       </c>
       <c r="K94" s="22"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>5</v>
       </c>
@@ -3788,16 +3785,16 @@
         <v>220</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" s="22">
         <v>22</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="22">
         <v>6</v>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="K95" s="22"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>5</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>220</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" s="22">
         <v>23</v>
@@ -3830,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="22">
         <v>1</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="K96" s="22"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>5</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>220</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" s="22">
         <v>24</v>
@@ -3863,7 +3860,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" s="22">
         <v>2</v>
@@ -3896,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" s="8">
         <v>1</v>
@@ -3904,8 +3901,12 @@
       <c r="H98" s="8">
         <v>0</v>
       </c>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="I98" s="8">
+        <v>2</v>
+      </c>
+      <c r="J98" s="8">
+        <v>1</v>
+      </c>
       <c r="K98" s="8"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -3925,7 +3926,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" s="8">
         <v>0</v>
@@ -3933,8 +3934,12 @@
       <c r="H99" s="8">
         <v>0</v>
       </c>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="I99" s="8">
+        <v>2</v>
+      </c>
+      <c r="J99" s="8">
+        <v>6</v>
+      </c>
       <c r="K99" s="8"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -3951,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" s="8">
         <v>4</v>
@@ -3962,8 +3967,12 @@
       <c r="H100" s="8">
         <v>0</v>
       </c>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="I100" s="8">
+        <v>1</v>
+      </c>
+      <c r="J100" s="8">
+        <v>1</v>
+      </c>
       <c r="K100" s="8"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -3980,10 +3989,10 @@
         <v>4</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G101" s="8">
         <v>0</v>
@@ -3991,8 +4000,12 @@
       <c r="H101" s="8">
         <v>0</v>
       </c>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="I101" s="8">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
+        <v>0</v>
+      </c>
       <c r="K101" s="8"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4009,10 +4022,10 @@
         <v>5</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" s="14">
         <v>1</v>
@@ -4020,8 +4033,12 @@
       <c r="H102" s="14">
         <v>0</v>
       </c>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="I102" s="14">
+        <v>2</v>
+      </c>
+      <c r="J102" s="14">
+        <v>3</v>
+      </c>
       <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4038,10 +4055,10 @@
         <v>6</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" s="14">
         <v>4</v>
@@ -4049,8 +4066,12 @@
       <c r="H103" s="14">
         <v>0</v>
       </c>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="I103" s="14">
+        <v>2</v>
+      </c>
+      <c r="J103" s="14">
+        <v>1</v>
+      </c>
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4070,7 +4091,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" s="14">
         <v>1</v>
@@ -4078,8 +4099,12 @@
       <c r="H104" s="14">
         <v>0</v>
       </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="I104" s="14">
+        <v>3</v>
+      </c>
+      <c r="J104" s="14">
+        <v>4</v>
+      </c>
       <c r="K104" s="14"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4099,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" s="14">
         <v>3</v>
@@ -4107,8 +4132,12 @@
       <c r="H105" s="14">
         <v>0</v>
       </c>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="I105" s="14">
+        <v>4</v>
+      </c>
+      <c r="J105" s="14">
+        <v>8</v>
+      </c>
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -4128,16 +4157,20 @@
         <v>10</v>
       </c>
       <c r="F106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="24">
+        <v>1</v>
+      </c>
+      <c r="H106" s="24">
+        <v>0</v>
+      </c>
+      <c r="I106" s="24">
+        <v>5</v>
+      </c>
+      <c r="J106" s="24">
         <v>13</v>
       </c>
-      <c r="G106" s="24">
-        <v>1</v>
-      </c>
-      <c r="H106" s="24">
-        <v>0</v>
-      </c>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
       <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4157,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="24">
         <v>5</v>
@@ -4165,8 +4198,12 @@
       <c r="H107" s="24">
         <v>0</v>
       </c>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
+      <c r="I107" s="24">
+        <v>1</v>
+      </c>
+      <c r="J107" s="24">
+        <v>3</v>
+      </c>
       <c r="K107" s="24"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4183,10 +4220,10 @@
         <v>19</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" s="24">
         <v>6</v>
@@ -4194,8 +4231,12 @@
       <c r="H108" s="24">
         <v>0</v>
       </c>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
+      <c r="I108" s="24">
+        <v>5</v>
+      </c>
+      <c r="J108" s="24">
+        <v>1</v>
+      </c>
       <c r="K108" s="24"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4212,10 +4253,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" s="24">
         <v>2</v>
@@ -4223,8 +4264,12 @@
       <c r="H109" s="24">
         <v>0</v>
       </c>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
+      <c r="I109" s="24">
+        <v>5</v>
+      </c>
+      <c r="J109" s="24">
+        <v>0</v>
+      </c>
       <c r="K109" s="24"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -4235,16 +4280,16 @@
         <v>216</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110" s="22">
         <v>21</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="22">
         <v>4</v>
@@ -4252,8 +4297,12 @@
       <c r="H110" s="22">
         <v>0</v>
       </c>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
+      <c r="I110" s="22">
+        <v>2</v>
+      </c>
+      <c r="J110" s="22">
+        <v>1</v>
+      </c>
       <c r="K110" s="22"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4264,16 +4313,16 @@
         <v>216</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" s="22">
         <v>22</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" s="22">
         <v>1</v>
@@ -4281,8 +4330,12 @@
       <c r="H111" s="22">
         <v>0</v>
       </c>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
+      <c r="I111" s="22">
+        <v>1</v>
+      </c>
+      <c r="J111" s="22">
+        <v>1</v>
+      </c>
       <c r="K111" s="22"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4293,7 +4346,7 @@
         <v>216</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" s="22">
         <v>23</v>
@@ -4302,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" s="22">
         <v>6</v>
@@ -4310,8 +4363,12 @@
       <c r="H112" s="22">
         <v>0</v>
       </c>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+      <c r="I112" s="22">
+        <v>8</v>
+      </c>
+      <c r="J112" s="22">
+        <v>12</v>
+      </c>
       <c r="K112" s="22"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4322,7 +4379,7 @@
         <v>216</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="22">
         <v>24</v>
@@ -4331,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" s="22">
         <v>3</v>
@@ -4339,8 +4396,12 @@
       <c r="H113" s="22">
         <v>0</v>
       </c>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+      <c r="I113" s="22">
+        <v>4</v>
+      </c>
+      <c r="J113" s="22">
+        <v>4</v>
+      </c>
       <c r="K113" s="22"/>
     </row>
   </sheetData>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3EF678-3B92-5349-A1D4-5921CE838BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C23BA-AE6D-D54B-BF6B-EFA480DC962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="P119" sqref="P119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>2</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>2</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>2</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>3</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>3</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>3</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>3</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>3</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>3</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>3</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>3</v>
       </c>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>3</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>3</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>3</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>3</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>4</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>4</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>4</v>
       </c>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>4</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>4</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>4</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>4</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>4</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>4</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>4</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>4</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>4</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>4</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="K70" s="22"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>4</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>4</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="K72" s="22"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>4</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>5</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>5</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>5</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>5</v>
       </c>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="K78" s="14"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>5</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="K79" s="14"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>5</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K80" s="14"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>5</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>5</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>5</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>5</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>5</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>5</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>5</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>5</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>5</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>5</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24">
         <v>5</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24">
         <v>5</v>
       </c>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>5</v>
       </c>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="K94" s="22"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>5</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="K95" s="22"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>5</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="K96" s="22"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>5</v>
       </c>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C23BA-AE6D-D54B-BF6B-EFA480DC962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A96797-E830-2B40-ACE8-8CB94CF9A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="P119" sqref="P119"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>2</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>2</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>2</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>2</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>3</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>3</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>3</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>3</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>3</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>3</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>3</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>3</v>
       </c>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>3</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>3</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>3</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>3</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>4</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>4</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>4</v>
       </c>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>4</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>4</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>4</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>4</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>4</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>4</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>4</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>4</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>4</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>4</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="K70" s="22"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>4</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>4</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="K72" s="22"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>4</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>5</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>5</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>5</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>5</v>
       </c>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="K78" s="14"/>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>5</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="K79" s="14"/>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>5</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K80" s="14"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>5</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>5</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>5</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>5</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>5</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>5</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>5</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>5</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>5</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>5</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="24">
         <v>5</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="24">
         <v>5</v>
       </c>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>5</v>
       </c>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="K94" s="22"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>5</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="K95" s="22"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>5</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="K96" s="22"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>5</v>
       </c>

--- a/data/alate_choice_in_vitro.xlsx
+++ b/data/alate_choice_in_vitro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/in_vitro_aphid_choice_UV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A96797-E830-2B40-ACE8-8CB94CF9A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6BB18-2442-284F-ADC1-2ABBB60DE557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28420" windowHeight="17440" xr2:uid="{8EB72C5B-4685-B74F-B23B-ECF8BB26795A}"/>
   </bookViews>
